--- a/AI84 vs Arm Model.xlsx
+++ b/AI84 vs Arm Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.muchsel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.muchsel/Documents/Source/ai84/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29388840-2B12-2644-ADEC-3D395110E4F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2093FCA-FF4E-854C-ADE4-84C85494254C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="33480" windowHeight="17120" xr2:uid="{4AA6D0C7-A62E-F548-98BD-7B50E7867754}"/>
+    <workbookView xWindow="5760" yWindow="1940" windowWidth="36860" windowHeight="22920" xr2:uid="{4AA6D0C7-A62E-F548-98BD-7B50E7867754}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
-  <si>
-    <t>MACs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>FC</t>
   </si>
@@ -62,9 +60,6 @@
     <t>TIME ms</t>
   </si>
   <si>
-    <t>TIME/MAC</t>
-  </si>
-  <si>
     <t>Layer</t>
   </si>
   <si>
@@ -74,20 +69,37 @@
     <t>Kernel Size</t>
   </si>
   <si>
-    <t>ENERGY/MAC</t>
-  </si>
-  <si>
     <t>ME11 vs ARM:</t>
+  </si>
+  <si>
+    <t>JOULE/MAC</t>
+  </si>
+  <si>
+    <t>MAC/JOULE</t>
+  </si>
+  <si>
+    <t>TIME/MAC ms</t>
+  </si>
+  <si>
+    <t>MAC/s</t>
+  </si>
+  <si>
+    <t>CIFAR-10</t>
+  </si>
+  <si>
+    <t>AI84 (default trim)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +115,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -220,11 +239,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -252,8 +292,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,22 +613,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64050710-60CE-6449-AD77-7E6717109F43}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -592,7 +641,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="15">
         <v>0</v>
@@ -608,12 +657,12 @@
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7">
         <v>25</v>
@@ -634,7 +683,7 @@
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="11">
         <v>9</v>
@@ -658,7 +707,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -669,7 +718,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="15">
         <v>0</v>
@@ -685,12 +734,12 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="7">
         <v>3</v>
@@ -711,7 +760,7 @@
     </row>
     <row r="9" spans="1:7" ht="17" thickBot="1">
       <c r="A9" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="11">
         <v>3</v>
@@ -733,7 +782,7 @@
     <row r="10" spans="1:7" ht="17" thickBot="1"/>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -744,7 +793,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="15">
         <v>0</v>
@@ -760,12 +809,12 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="7">
         <v>32</v>
@@ -786,7 +835,7 @@
     </row>
     <row r="14" spans="1:7" ht="17" thickBot="1">
       <c r="A14" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="11">
         <v>60</v>
@@ -808,7 +857,7 @@
     <row r="15" spans="1:7" ht="17" thickBot="1"/>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -817,9 +866,9 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:14">
       <c r="A17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="15">
         <v>0</v>
@@ -835,12 +884,12 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="7">
         <f>32*32</f>
@@ -862,9 +911,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17" thickBot="1">
+    <row r="19" spans="1:14" ht="17" thickBot="1">
       <c r="A19" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="11">
         <f>32*32</f>
@@ -887,10 +936,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17" thickBot="1"/>
-    <row r="22" spans="1:12">
+    <row r="21" spans="1:14" ht="17" thickBot="1"/>
+    <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -902,11 +951,13 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="15">
         <v>0</v>
@@ -921,30 +972,36 @@
         <v>3</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="12" t="s">
-        <v>5</v>
       </c>
       <c r="B24" s="7">
         <f t="shared" ref="B24:E25" si="0">B3*B8*B13*B18</f>
@@ -981,17 +1038,25 @@
         <f>I24/H24</f>
         <v>3.9636843798595094E-5</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="26">
+        <f>1000/J24</f>
+        <v>25229052.168766383</v>
+      </c>
+      <c r="L24" s="22">
         <v>11.2</v>
       </c>
-      <c r="L24" s="9">
-        <f>J24*K24</f>
-        <v>4.4393265054426501E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17" thickBot="1">
+      <c r="M24" s="21">
+        <f>J24*L24/1000</f>
+        <v>4.43932650544265E-7</v>
+      </c>
+      <c r="N24" s="23">
+        <f>1/M24</f>
+        <v>2252593.9436398563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" thickBot="1">
       <c r="A25" s="13" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B25" s="11">
         <f t="shared" si="0"/>
@@ -1025,20 +1090,28 @@
         <f>I25/F25</f>
         <v>1.2568371943371945E-7</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="25">
+        <f>1000/J25</f>
+        <v>7956479999.999999</v>
+      </c>
+      <c r="L25" s="18">
         <v>5.4</v>
       </c>
-      <c r="L25" s="1">
-        <f>J25*K25</f>
-        <v>6.7869208494208512E-7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="K27" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="20">
-        <f>L24/L25</f>
+      <c r="M25" s="11">
+        <f>J25*L25/1000</f>
+        <v>6.786920849420851E-10</v>
+      </c>
+      <c r="N25" s="24">
+        <f>1/M25</f>
+        <v>1473422222.2222219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="L27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="20">
+        <f>M24/M25</f>
         <v>654.10023248193204</v>
       </c>
     </row>

--- a/AI84 vs Arm Model.xlsx
+++ b/AI84 vs Arm Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.muchsel/Documents/Source/ai84/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2093FCA-FF4E-854C-ADE4-84C85494254C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A4161D-1754-384B-A96F-D3DBEA5DEC2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1940" windowWidth="36860" windowHeight="22920" xr2:uid="{4AA6D0C7-A62E-F548-98BD-7B50E7867754}"/>
+    <workbookView xWindow="2580" yWindow="460" windowWidth="39220" windowHeight="25000" xr2:uid="{4AA6D0C7-A62E-F548-98BD-7B50E7867754}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>FC</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>AI84</t>
   </si>
   <si>
@@ -69,37 +66,86 @@
     <t>Kernel Size</t>
   </si>
   <si>
-    <t>ME11 vs ARM:</t>
-  </si>
-  <si>
     <t>JOULE/MAC</t>
   </si>
   <si>
     <t>MAC/JOULE</t>
   </si>
   <si>
-    <t>TIME/MAC ms</t>
-  </si>
-  <si>
     <t>MAC/s</t>
   </si>
   <si>
     <t>CIFAR-10</t>
   </si>
   <si>
-    <t>AI84 (default trim)</t>
+    <t>ENERGY uJ</t>
+  </si>
+  <si>
+    <t>TIME/MAC s</t>
+  </si>
+  <si>
+    <t>Input Size</t>
+  </si>
+  <si>
+    <t>TOTAL EST</t>
+  </si>
+  <si>
+    <t>MACs/s/MHz</t>
+  </si>
+  <si>
+    <t>AI84 RTL sim</t>
+  </si>
+  <si>
+    <t>AI84 1.1V (default trim)</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>ENERGY</t>
+  </si>
+  <si>
+    <t>ME11 vs AI84:</t>
+  </si>
+  <si>
+    <t>MACs</t>
+  </si>
+  <si>
+    <t>MEASURED</t>
+  </si>
+  <si>
+    <t>AI84 1.1V (100 MHz)</t>
+  </si>
+  <si>
+    <t>ME11 1.8V-3.3V</t>
+  </si>
+  <si>
+    <t>MACs estimated for layer (includes padding)</t>
+  </si>
+  <si>
+    <t>TIME (MHz)</t>
+  </si>
+  <si>
+    <t>Clk</t>
+  </si>
+  <si>
+    <t>AI84 0.9V (default trim)</t>
+  </si>
+  <si>
+    <t>AI84 0.9V (46 MHz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +168,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -259,12 +322,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -281,23 +355,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -613,506 +727,984 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64050710-60CE-6449-AD77-7E6717109F43}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="B1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="2:9" ht="17" thickBot="1"/>
+    <row r="2" spans="2:9">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="6"/>
+      <c r="C3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14">
+        <v>3</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="7">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="17" thickBot="1">
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="11">
         <v>9</v>
       </c>
-      <c r="B2" s="15">
+      <c r="E5" s="11">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11">
+        <v>9</v>
+      </c>
+      <c r="G5" s="11">
+        <v>9</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="17" thickBot="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="14">
         <v>0</v>
       </c>
-      <c r="C2" s="15">
+      <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="F8" s="14">
         <v>2</v>
       </c>
-      <c r="E2" s="15">
+      <c r="G8" s="14">
         <v>3</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7">
-        <v>25</v>
-      </c>
-      <c r="C3" s="7">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7">
+    <row r="9" spans="2:9">
+      <c r="B9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9">
+      <c r="H9" s="7"/>
+      <c r="I9" s="9">
+        <f>288</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="17" thickBot="1">
+      <c r="B10" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1">
-      <c r="A4" s="10" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11">
+        <v>60</v>
+      </c>
+      <c r="F10" s="11">
+        <v>60</v>
+      </c>
+      <c r="G10" s="11">
+        <v>56</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="17" thickBot="1">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="6"/>
+      <c r="C13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11">
-        <v>9</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="G13" s="14">
+        <v>3</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15">
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7">
-        <v>32</v>
-      </c>
-      <c r="D8" s="7">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1">
-      <c r="A9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11">
-        <v>60</v>
-      </c>
-      <c r="D9" s="11">
-        <v>60</v>
-      </c>
-      <c r="E9" s="11">
-        <v>56</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" thickBot="1"/>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="15">
-        <v>0</v>
-      </c>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15">
-        <v>2</v>
-      </c>
-      <c r="E12" s="15">
-        <v>3</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7">
-        <v>32</v>
-      </c>
-      <c r="C13" s="7">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7">
-        <v>32</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1">
-      <c r="A14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="11">
-        <v>60</v>
-      </c>
-      <c r="C14" s="11">
-        <v>60</v>
-      </c>
-      <c r="D14" s="11">
-        <v>56</v>
-      </c>
-      <c r="E14" s="11">
-        <v>12</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1"/>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="15">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
-      <c r="E17" s="15">
-        <v>3</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
         <f>32*32</f>
         <v>1024</v>
       </c>
-      <c r="C18" s="7">
+      <c r="E14" s="7">
         <f>15*15</f>
         <v>225</v>
       </c>
-      <c r="D18" s="7">
+      <c r="F14" s="7">
         <f>7*7</f>
         <v>49</v>
       </c>
-      <c r="E18" s="7">
+      <c r="G14" s="24">
         <v>0</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="9">
+      <c r="H14" s="7"/>
+      <c r="I14" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17" thickBot="1">
-      <c r="A19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="11">
+    <row r="15" spans="2:9" ht="17" thickBot="1">
+      <c r="B15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
         <f>32*32</f>
         <v>1024</v>
       </c>
-      <c r="C19" s="11">
-        <f>32*32</f>
-        <v>1024</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="E15" s="11">
         <f>16*16</f>
         <v>256</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F15" s="11">
         <f>8*8</f>
         <v>64</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="1">
+      <c r="G15" s="11">
+        <f>4*4</f>
+        <v>16</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17" thickBot="1"/>
-    <row r="22" spans="1:14">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+    <row r="16" spans="2:9" ht="17" thickBot="1"/>
+    <row r="17" spans="2:22">
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="6"/>
+      <c r="C18" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>2</v>
+      </c>
+      <c r="G18" s="14">
+        <v>3</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
+        <v>32</v>
+      </c>
+      <c r="E19" s="7">
+        <v>16</v>
+      </c>
+      <c r="F19" s="7">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="17" thickBot="1">
+      <c r="B20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
+        <v>60</v>
+      </c>
+      <c r="E20" s="11">
+        <v>60</v>
+      </c>
+      <c r="F20" s="11">
+        <v>56</v>
+      </c>
+      <c r="G20" s="11">
+        <v>12</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="17" thickBot="1"/>
+    <row r="22" spans="2:22">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="30"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="6" t="s">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="6"/>
+      <c r="C23" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>3</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7">
+        <f>32*32</f>
+        <v>1024</v>
+      </c>
+      <c r="E24" s="7">
+        <f>15*15</f>
+        <v>225</v>
+      </c>
+      <c r="F24" s="7">
+        <f>7*7</f>
+        <v>49</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="17" thickBot="1">
+      <c r="B25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11">
+        <f>32*32</f>
+        <v>1024</v>
+      </c>
+      <c r="E25" s="11">
+        <f>16*16</f>
+        <v>256</v>
+      </c>
+      <c r="F25" s="11">
+        <f>8*8</f>
+        <v>64</v>
+      </c>
+      <c r="G25" s="11">
+        <f>4*4</f>
+        <v>16</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="17" thickBot="1"/>
+    <row r="28" spans="2:22">
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5"/>
+      <c r="U28" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="6"/>
+      <c r="C29" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14">
+        <v>2</v>
+      </c>
+      <c r="G29" s="14">
+        <v>3</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="15">
+      <c r="R29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U29" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="V29" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="7">
+        <v>96</v>
+      </c>
+      <c r="D30" s="49">
+        <f>D4*D9*D19*D24</f>
+        <v>2457600</v>
+      </c>
+      <c r="E30" s="49">
+        <f>E4*E9*E19*E24</f>
+        <v>2880000</v>
+      </c>
+      <c r="F30" s="49">
+        <f>F4*F9*F19*F24</f>
+        <v>627200</v>
+      </c>
+      <c r="G30" s="49">
+        <f>G4*G9*G19*G24</f>
         <v>0</v>
       </c>
-      <c r="C23" s="15">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15">
-        <v>3</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="7">
-        <f t="shared" ref="B24:E25" si="0">B3*B8*B13*B18</f>
-        <v>2457600</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="H30" s="49">
+        <f>SUM(D30:G30)</f>
+        <v>5964800</v>
+      </c>
+      <c r="I30" s="50">
+        <f>I4*I9*I19*I24</f>
+        <v>2880</v>
+      </c>
+      <c r="J30" s="49">
+        <f>SUM(H30:I30)</f>
+        <v>5967680</v>
+      </c>
+      <c r="K30" s="46">
+        <v>5672320</v>
+      </c>
+      <c r="L30" s="25">
+        <v>236.54</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" ref="M30:M35" si="0">L30/1000/K30</f>
+        <v>4.1700750310278687E-8</v>
+      </c>
+      <c r="N30" s="33">
+        <f t="shared" ref="N30:N35" si="1">1/M30</f>
+        <v>23980383.867422</v>
+      </c>
+      <c r="O30" s="33">
+        <f t="shared" ref="O30:O35" si="2">N30/C30</f>
+        <v>249795.66528564584</v>
+      </c>
+      <c r="P30" s="44">
+        <f>L30*Q30</f>
+        <v>2649.2479999999996</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>11.2</v>
+      </c>
+      <c r="R30" s="58">
+        <f>M30*Q30/1000</f>
+        <v>4.6704840347512127E-10</v>
+      </c>
+      <c r="S30" s="57">
+        <f>1/R30</f>
+        <v>2141105702.4483931</v>
+      </c>
+      <c r="U30" s="12"/>
+      <c r="V30" s="9"/>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="7">
+        <f>121.95/4</f>
+        <v>30.487500000000001</v>
+      </c>
+      <c r="D31" s="49">
+        <f>D32</f>
+        <v>1658880</v>
+      </c>
+      <c r="E31" s="49">
+        <f t="shared" ref="E31:G31" si="3">E32</f>
+        <v>8294400</v>
+      </c>
+      <c r="F31" s="49">
+        <f t="shared" si="3"/>
+        <v>1935360</v>
+      </c>
+      <c r="G31" s="49">
+        <f t="shared" si="3"/>
+        <v>96768</v>
+      </c>
+      <c r="H31" s="49">
+        <f t="shared" ref="H31" si="4">H32</f>
+        <v>11985408</v>
+      </c>
+      <c r="I31" s="51">
+        <f t="shared" ref="I31" si="5">I32</f>
+        <v>1920</v>
+      </c>
+      <c r="J31" s="52">
+        <f>H31</f>
+        <v>11985408</v>
+      </c>
+      <c r="K31" s="47">
+        <v>10901520</v>
+      </c>
+      <c r="L31" s="27">
+        <v>2.809812</v>
+      </c>
+      <c r="M31" s="7">
         <f t="shared" si="0"/>
-        <v>2880000</v>
-      </c>
-      <c r="D24" s="7">
+        <v>2.5774497501265877E-10</v>
+      </c>
+      <c r="N31" s="33">
+        <f t="shared" si="1"/>
+        <v>3879804058.0650949</v>
+      </c>
+      <c r="O31" s="33">
+        <f t="shared" si="2"/>
+        <v>127258845.69299205</v>
+      </c>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="23"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="9"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="7">
+        <f>31.44/2</f>
+        <v>15.72</v>
+      </c>
+      <c r="D32" s="49">
+        <f>D5*D10*D20*D25</f>
+        <v>1658880</v>
+      </c>
+      <c r="E32" s="49">
+        <f>E5*E10*E20*E25</f>
+        <v>8294400</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F5*F10*F20*F25</f>
+        <v>1935360</v>
+      </c>
+      <c r="G32" s="49">
+        <f>G5*G10*G20*G25</f>
+        <v>96768</v>
+      </c>
+      <c r="H32" s="49">
+        <f>SUM(D32:G32)</f>
+        <v>11985408</v>
+      </c>
+      <c r="I32" s="51">
+        <f>I5*I10*I20*I25</f>
+        <v>1920</v>
+      </c>
+      <c r="J32" s="52">
+        <f>H32</f>
+        <v>11985408</v>
+      </c>
+      <c r="K32" s="47">
+        <v>10901520</v>
+      </c>
+      <c r="L32" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="M32" s="7">
         <f t="shared" si="0"/>
-        <v>627200</v>
-      </c>
-      <c r="E24" s="7">
+        <v>4.953437685753913E-10</v>
+      </c>
+      <c r="N32" s="33">
+        <f t="shared" si="1"/>
+        <v>2018800000</v>
+      </c>
+      <c r="O32" s="33">
+        <f t="shared" si="2"/>
+        <v>128422391.85750635</v>
+      </c>
+      <c r="P32" s="20">
+        <v>43</v>
+      </c>
+      <c r="Q32" s="26">
+        <f>P32/L32</f>
+        <v>7.9629629629629628</v>
+      </c>
+      <c r="R32" s="59">
+        <f>P32/H32/1000000</f>
+        <v>3.5876959716348413E-12</v>
+      </c>
+      <c r="S32" s="21">
+        <f>1/R32</f>
+        <v>278730418604.65118</v>
+      </c>
+      <c r="U32" s="35">
+        <f>R$30/R32</f>
+        <v>130.18059700925457</v>
+      </c>
+      <c r="V32" s="36">
+        <f>O32/O$30</f>
+        <v>514.10976932146934</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="24">
+        <f>100/2</f>
+        <v>50</v>
+      </c>
+      <c r="D33" s="49">
+        <f>D32</f>
+        <v>1658880</v>
+      </c>
+      <c r="E33" s="49">
+        <f t="shared" ref="E33:G33" si="6">E32</f>
+        <v>8294400</v>
+      </c>
+      <c r="F33" s="49">
+        <f t="shared" si="6"/>
+        <v>1935360</v>
+      </c>
+      <c r="G33" s="49">
+        <f t="shared" si="6"/>
+        <v>96768</v>
+      </c>
+      <c r="H33" s="49">
+        <f>SUM(D33:G33)</f>
+        <v>11985408</v>
+      </c>
+      <c r="I33" s="51">
+        <f>I32</f>
+        <v>1920</v>
+      </c>
+      <c r="J33" s="52">
+        <f>H33</f>
+        <v>11985408</v>
+      </c>
+      <c r="K33" s="47">
+        <v>10901520</v>
+      </c>
+      <c r="L33" s="27">
+        <v>1.7</v>
+      </c>
+      <c r="M33" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <f>SUM(B24:E24)</f>
-        <v>5964800</v>
-      </c>
-      <c r="G24" s="7">
-        <f>G3*G8*G13*G18</f>
-        <v>2880</v>
-      </c>
-      <c r="H24" s="7">
-        <f>SUM(F24:G24)</f>
-        <v>5967680</v>
-      </c>
-      <c r="I24" s="7">
-        <v>236.54</v>
-      </c>
-      <c r="J24" s="7">
-        <f>I24/H24</f>
-        <v>3.9636843798595094E-5</v>
-      </c>
-      <c r="K24" s="26">
-        <f>1000/J24</f>
-        <v>25229052.168766383</v>
-      </c>
-      <c r="L24" s="22">
-        <v>11.2</v>
-      </c>
-      <c r="M24" s="21">
-        <f>J24*L24/1000</f>
-        <v>4.43932650544265E-7</v>
-      </c>
-      <c r="N24" s="23">
-        <f>1/M24</f>
-        <v>2252593.9436398563</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="17" thickBot="1">
-      <c r="A25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="11">
+        <v>1.559415567737343E-10</v>
+      </c>
+      <c r="N33" s="33">
+        <f t="shared" si="1"/>
+        <v>6412658823.5294123</v>
+      </c>
+      <c r="O33" s="33">
+        <f t="shared" si="2"/>
+        <v>128253176.47058825</v>
+      </c>
+      <c r="P33" s="20">
+        <v>34.6</v>
+      </c>
+      <c r="Q33" s="26">
+        <f>P33/L33</f>
+        <v>20.352941176470591</v>
+      </c>
+      <c r="R33" s="59">
+        <f>P33/H33/1000000</f>
+        <v>2.886843735315477E-12</v>
+      </c>
+      <c r="S33" s="21">
+        <f>1/R33</f>
+        <v>346399075144.50867</v>
+      </c>
+      <c r="U33" s="35">
+        <f>R$30/R33</f>
+        <v>161.78513501150132</v>
+      </c>
+      <c r="V33" s="36">
+        <f>O33/O$30</f>
+        <v>513.43235409601061</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7">
+        <f>31.44/2</f>
+        <v>15.72</v>
+      </c>
+      <c r="D34" s="49">
+        <f>D32</f>
+        <v>1658880</v>
+      </c>
+      <c r="E34" s="49">
+        <f t="shared" ref="E34:G34" si="7">E32</f>
+        <v>8294400</v>
+      </c>
+      <c r="F34" s="49">
+        <f t="shared" si="7"/>
+        <v>1935360</v>
+      </c>
+      <c r="G34" s="49">
+        <f t="shared" si="7"/>
+        <v>96768</v>
+      </c>
+      <c r="H34" s="49">
+        <f>SUM(D34:G34)</f>
+        <v>11985408</v>
+      </c>
+      <c r="I34" s="51">
+        <f>I33</f>
+        <v>1920</v>
+      </c>
+      <c r="J34" s="52">
+        <f>H34</f>
+        <v>11985408</v>
+      </c>
+      <c r="K34" s="47">
+        <v>10901520</v>
+      </c>
+      <c r="L34" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="M34" s="7">
         <f t="shared" si="0"/>
+        <v>4.953437685753913E-10</v>
+      </c>
+      <c r="N34" s="33">
+        <f t="shared" si="1"/>
+        <v>2018800000</v>
+      </c>
+      <c r="O34" s="33">
+        <f t="shared" si="2"/>
+        <v>128422391.85750635</v>
+      </c>
+      <c r="P34" s="20">
+        <v>26.6</v>
+      </c>
+      <c r="Q34" s="26">
+        <f>P34/L34</f>
+        <v>4.9259259259259256</v>
+      </c>
+      <c r="R34" s="59">
+        <f>P34/H34/1000000</f>
+        <v>2.2193654150113206E-12</v>
+      </c>
+      <c r="S34" s="21">
+        <f>1/R34</f>
+        <v>450579248120.30072</v>
+      </c>
+      <c r="U34" s="35">
+        <f>R$30/R34</f>
+        <v>210.44231847360697</v>
+      </c>
+      <c r="V34" s="36">
+        <f>O34/O$30</f>
+        <v>514.10976932146934</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" ht="17" thickBot="1">
+      <c r="B35" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="32">
+        <f>46/2</f>
+        <v>23</v>
+      </c>
+      <c r="D35" s="53">
+        <f>D32</f>
         <v>1658880</v>
       </c>
-      <c r="C25" s="11">
+      <c r="E35" s="53">
+        <f>E32</f>
+        <v>8294400</v>
+      </c>
+      <c r="F35" s="53">
+        <f t="shared" ref="F35:I35" si="8">F32</f>
+        <v>1935360</v>
+      </c>
+      <c r="G35" s="53">
+        <f t="shared" si="8"/>
+        <v>96768</v>
+      </c>
+      <c r="H35" s="53">
+        <f t="shared" si="8"/>
+        <v>11985408</v>
+      </c>
+      <c r="I35" s="54">
+        <f t="shared" si="8"/>
+        <v>1920</v>
+      </c>
+      <c r="J35" s="53">
+        <f>H35</f>
+        <v>11985408</v>
+      </c>
+      <c r="K35" s="48">
+        <v>10901520</v>
+      </c>
+      <c r="L35" s="41">
+        <v>3.7</v>
+      </c>
+      <c r="M35" s="11">
         <f t="shared" si="0"/>
-        <v>33177600</v>
-      </c>
-      <c r="D25" s="11">
-        <f t="shared" si="0"/>
-        <v>7741440</v>
-      </c>
-      <c r="E25" s="11">
-        <f t="shared" si="0"/>
-        <v>387072</v>
-      </c>
-      <c r="F25" s="11">
-        <f>SUM(B25:E25)</f>
-        <v>42964992</v>
-      </c>
-      <c r="G25" s="11">
-        <f>G4*G9*G14*G19</f>
-        <v>1920</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="14">
-        <v>5.4</v>
-      </c>
-      <c r="J25" s="11">
-        <f>I25/F25</f>
-        <v>1.2568371943371945E-7</v>
-      </c>
-      <c r="K25" s="25">
-        <f>1000/J25</f>
-        <v>7956479999.999999</v>
-      </c>
-      <c r="L25" s="18">
-        <v>5.4</v>
-      </c>
-      <c r="M25" s="11">
-        <f>J25*L25/1000</f>
-        <v>6.786920849420851E-10</v>
-      </c>
-      <c r="N25" s="24">
-        <f>1/M25</f>
-        <v>1473422222.2222219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="L27" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="20">
-        <f>M24/M25</f>
-        <v>654.10023248193204</v>
+        <v>3.3940221180165703E-10</v>
+      </c>
+      <c r="N35" s="34">
+        <f t="shared" si="1"/>
+        <v>2946356756.7567568</v>
+      </c>
+      <c r="O35" s="34">
+        <f t="shared" si="2"/>
+        <v>128102467.68507639</v>
+      </c>
+      <c r="P35" s="62">
+        <v>18.5</v>
+      </c>
+      <c r="Q35" s="43">
+        <f>P35/L35</f>
+        <v>5</v>
+      </c>
+      <c r="R35" s="60">
+        <f>P35/H35/1000000</f>
+        <v>1.5435436157033621E-12</v>
+      </c>
+      <c r="S35" s="18">
+        <f>1/R35</f>
+        <v>647859891891.89185</v>
+      </c>
+      <c r="U35" s="37">
+        <f>R$30/R35</f>
+        <v>302.58192818367274</v>
+      </c>
+      <c r="V35" s="38">
+        <f>O35/O$30</f>
+        <v>512.82902583032785</v>
       </c>
     </row>
   </sheetData>

--- a/AI84 vs Arm Model.xlsx
+++ b/AI84 vs Arm Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.muchsel/Documents/Source/ai84/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A4161D-1754-384B-A96F-D3DBEA5DEC2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210DACD1-81F5-CC41-BFBF-D679AA398971}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="460" windowWidth="39220" windowHeight="25000" xr2:uid="{4AA6D0C7-A62E-F548-98BD-7B50E7867754}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>FC</t>
   </si>
@@ -39,9 +39,6 @@
     <t>AI84</t>
   </si>
   <si>
-    <t>Total Conv</t>
-  </si>
-  <si>
     <t>ARM</t>
   </si>
   <si>
@@ -75,21 +72,12 @@
     <t>MAC/s</t>
   </si>
   <si>
-    <t>CIFAR-10</t>
-  </si>
-  <si>
     <t>ENERGY uJ</t>
   </si>
   <si>
-    <t>TIME/MAC s</t>
-  </si>
-  <si>
     <t>Input Size</t>
   </si>
   <si>
-    <t>TOTAL EST</t>
-  </si>
-  <si>
     <t>MACs/s/MHz</t>
   </si>
   <si>
@@ -105,12 +93,6 @@
     <t>ENERGY</t>
   </si>
   <si>
-    <t>ME11 vs AI84:</t>
-  </si>
-  <si>
-    <t>MACs</t>
-  </si>
-  <si>
     <t>MEASURED</t>
   </si>
   <si>
@@ -120,19 +102,73 @@
     <t>ME11 1.8V-3.3V</t>
   </si>
   <si>
-    <t>MACs estimated for layer (includes padding)</t>
-  </si>
-  <si>
     <t>TIME (MHz)</t>
   </si>
   <si>
-    <t>Clk</t>
-  </si>
-  <si>
     <t>AI84 0.9V (default trim)</t>
   </si>
   <si>
     <t>AI84 0.9V (46 MHz)</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>AI84 Energy vs. ARM Energy (CIFAR-10)</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>OP/s</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>OP/s/MHz</t>
+  </si>
+  <si>
+    <t>JOULE/OP</t>
+  </si>
+  <si>
+    <t>OP/JOULE</t>
+  </si>
+  <si>
+    <t>CIFAR-10 MAC</t>
+  </si>
+  <si>
+    <t>CIFAR-10 OP</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>TIME/MAC (s)</t>
+  </si>
+  <si>
+    <t>TIME/OP (s)</t>
+  </si>
+  <si>
+    <t>OP calculated for layer (includes padding)</t>
+  </si>
+  <si>
+    <t>MAC calculated for layer (includes padding)</t>
+  </si>
+  <si>
+    <t>OP TOTAL</t>
+  </si>
+  <si>
+    <t>MAC TOTAL</t>
+  </si>
+  <si>
+    <t>ME11 vs AI84 (OP):</t>
+  </si>
+  <si>
+    <t>ME11 vs AI84 (MAC):</t>
   </si>
 </sst>
 </file>
@@ -145,7 +181,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +217,14 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,15 +348,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -333,12 +368,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -384,18 +429,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -404,17 +448,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -727,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64050710-60CE-6449-AD77-7E6717109F43}">
-  <dimension ref="B1:V35"/>
+  <dimension ref="B1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -738,973 +795,1558 @@
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" customWidth="1"/>
+    <col min="4" max="15" width="15.83203125" customWidth="1"/>
     <col min="16" max="16" width="13.6640625" customWidth="1"/>
     <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17" thickBot="1"/>
-    <row r="2" spans="2:9">
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="6"/>
-      <c r="C3" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="14">
+    <row r="1" spans="2:15" ht="21" thickBot="1">
+      <c r="B1" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+    </row>
+    <row r="2" spans="2:15" ht="18" thickTop="1" thickBot="1"/>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="6"/>
+      <c r="C4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E4" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="14">
+      <c r="G4" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="14">
         <v>2</v>
       </c>
-      <c r="G3" s="14">
+      <c r="I4" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="14">
         <v>3</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
+      <c r="K4" s="67" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="2:15">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="7">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>25</v>
+      </c>
+      <c r="G5" s="24">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7">
+        <v>25</v>
+      </c>
+      <c r="I5" s="24">
+        <v>9</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="17" thickBot="1">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="11">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11">
+        <v>9</v>
+      </c>
+      <c r="I6" s="11">
+        <v>4</v>
+      </c>
+      <c r="J6" s="11">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="17" thickBot="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="7">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7">
-        <v>25</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="C8" s="30"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="6"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="14">
         <v>0</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9">
+      <c r="E9" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="17" thickBot="1">
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="11">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11">
-        <v>9</v>
-      </c>
-      <c r="F5" s="11">
-        <v>9</v>
-      </c>
-      <c r="G5" s="11">
-        <v>9</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="17" thickBot="1">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="6"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="14">
+      <c r="G9" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="14">
+        <v>3</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="14">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15" t="s">
+      <c r="E10" s="7">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7">
+        <v>32</v>
+      </c>
+      <c r="G10" s="24">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7">
+        <v>16</v>
+      </c>
+      <c r="I10" s="24">
+        <v>32</v>
+      </c>
+      <c r="J10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9">
+      <c r="K10" s="9">
         <f>288</f>
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="17" thickBot="1">
-      <c r="B10" s="13" t="s">
+    <row r="11" spans="2:15" ht="17" thickBot="1">
+      <c r="B11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>60</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>60</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
+        <v>60</v>
+      </c>
+      <c r="H11" s="11">
+        <v>60</v>
+      </c>
+      <c r="I11" s="11">
         <v>56</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="1">
+      <c r="J11" s="11">
+        <v>56</v>
+      </c>
+      <c r="K11" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="17" thickBot="1">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="6"/>
-      <c r="C13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="14">
+    <row r="12" spans="2:15" ht="17" thickBot="1">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="6"/>
+      <c r="C14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="14">
         <v>0</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E14" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="14">
         <v>1</v>
       </c>
-      <c r="F13" s="14">
+      <c r="G14" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="14">
         <v>2</v>
       </c>
-      <c r="G13" s="14">
+      <c r="I14" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="14">
         <v>3</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
+    <row r="15" spans="2:15">
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
         <f>32*32</f>
         <v>1024</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
+        <v>1024</v>
+      </c>
+      <c r="F15" s="7">
         <f>15*15</f>
         <v>225</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G15" s="7">
+        <v>256</v>
+      </c>
+      <c r="H15" s="7">
         <f>7*7</f>
         <v>49</v>
       </c>
-      <c r="G14" s="24">
+      <c r="I15" s="7">
+        <v>64</v>
+      </c>
+      <c r="J15" s="24">
         <v>0</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9">
+      <c r="K15" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="17" thickBot="1">
-      <c r="B15" s="13" t="s">
+    <row r="16" spans="2:15" ht="17" thickBot="1">
+      <c r="B16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
         <f>32*32</f>
         <v>1024</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
+        <v>1024</v>
+      </c>
+      <c r="F16" s="11">
         <f>16*16</f>
         <v>256</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G16" s="11">
+        <v>256</v>
+      </c>
+      <c r="H16" s="11">
         <f>8*8</f>
         <v>64</v>
       </c>
-      <c r="G15" s="11">
+      <c r="I16" s="11">
+        <v>64</v>
+      </c>
+      <c r="J16" s="11">
         <f>4*4</f>
         <v>16</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="1">
+      <c r="K16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="17" thickBot="1"/>
-    <row r="17" spans="2:22">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:13" ht="17" thickBot="1"/>
+    <row r="18" spans="2:13">
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="6"/>
+      <c r="C19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="14">
+        <v>2</v>
+      </c>
+      <c r="I19" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="14">
+        <v>3</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7">
+        <v>32</v>
+      </c>
+      <c r="F20" s="7">
+        <v>16</v>
+      </c>
+      <c r="G20" s="24">
+        <v>16</v>
+      </c>
+      <c r="H20" s="7">
+        <v>32</v>
+      </c>
+      <c r="I20" s="24">
+        <v>32</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="17" thickBot="1">
+      <c r="B21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>60</v>
+      </c>
+      <c r="E21" s="11">
+        <v>60</v>
+      </c>
+      <c r="F21" s="11">
+        <v>60</v>
+      </c>
+      <c r="G21" s="11">
+        <v>60</v>
+      </c>
+      <c r="H21" s="11">
+        <v>56</v>
+      </c>
+      <c r="I21" s="11">
+        <v>56</v>
+      </c>
+      <c r="J21" s="11">
+        <v>12</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="17" thickBot="1"/>
+    <row r="23" spans="2:13">
+      <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:22">
-      <c r="B18" s="6"/>
-      <c r="C18" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C23" s="30"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="6"/>
+      <c r="C24" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="14">
         <v>0</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E24" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="14">
         <v>1</v>
       </c>
-      <c r="F18" s="14">
+      <c r="G24" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="14">
         <v>2</v>
       </c>
-      <c r="G18" s="14">
+      <c r="I24" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="14">
         <v>3</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
-      <c r="B19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
-        <v>32</v>
-      </c>
-      <c r="E19" s="7">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" ht="17" thickBot="1">
-      <c r="B20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11">
-        <v>60</v>
-      </c>
-      <c r="E20" s="11">
-        <v>60</v>
-      </c>
-      <c r="F20" s="11">
-        <v>56</v>
-      </c>
-      <c r="G20" s="11">
-        <v>12</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" ht="17" thickBot="1"/>
-    <row r="22" spans="2:22">
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="2:22">
-      <c r="B23" s="6"/>
-      <c r="C23" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-      <c r="F23" s="14">
+    <row r="25" spans="2:13">
+      <c r="B25" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="14">
-        <v>3</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22">
-      <c r="B24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7">
         <f>32*32</f>
         <v>1024</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
+        <v>225</v>
+      </c>
+      <c r="F25" s="7">
         <f>15*15</f>
         <v>225</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G25" s="7">
+        <v>49</v>
+      </c>
+      <c r="H25" s="7">
         <f>7*7</f>
         <v>49</v>
       </c>
-      <c r="G24" s="7">
+      <c r="I25" s="7">
+        <v>9</v>
+      </c>
+      <c r="J25" s="7">
         <v>0</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="9">
+      <c r="K25" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="17" thickBot="1">
-      <c r="B25" s="13" t="s">
+    <row r="26" spans="2:13" ht="17" thickBot="1">
+      <c r="B26" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11">
         <f>32*32</f>
         <v>1024</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
+        <v>256</v>
+      </c>
+      <c r="F26" s="11">
         <f>16*16</f>
         <v>256</v>
       </c>
-      <c r="F25" s="11">
+      <c r="G26" s="11">
+        <v>64</v>
+      </c>
+      <c r="H26" s="11">
         <f>8*8</f>
         <v>64</v>
       </c>
-      <c r="G25" s="11">
+      <c r="I26" s="11">
+        <v>16</v>
+      </c>
+      <c r="J26" s="11">
         <f>4*4</f>
         <v>16</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1">
+      <c r="K26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:22" ht="17" thickBot="1"/>
-    <row r="28" spans="2:22">
-      <c r="B28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="4" t="s">
+    <row r="28" spans="2:13" ht="17" thickBot="1"/>
+    <row r="29" spans="2:13">
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="6"/>
+      <c r="C30" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14">
+        <v>2</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14">
+        <v>3</v>
+      </c>
+      <c r="K30" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="L30" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="49">
+        <f>D5*D10*D20*D25</f>
+        <v>2457600</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="49">
+        <f>F5*F10*F20*F25</f>
+        <v>2880000</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="49">
+        <f>H5*H10*H20*H25</f>
+        <v>627200</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="49">
+        <f>J5*J10*J20*J25</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="49">
+        <f>SUM(D31:J31)</f>
+        <v>5964800</v>
+      </c>
+      <c r="L31" s="61">
+        <f>K5*K10*K20*K25</f>
+        <v>2880</v>
+      </c>
+      <c r="M31" s="62">
+        <f>SUM(K31:L31)</f>
+        <v>5967680</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="17" thickBot="1">
+      <c r="B32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="52">
+        <f>D6*D11*D21*D26</f>
+        <v>1658880</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="52">
+        <f>F6*F11*F21*F26</f>
+        <v>8294400</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="52">
+        <f>H6*H11*H21*H26</f>
+        <v>1935360</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="52">
+        <f>J6*J11*J21*J26</f>
+        <v>96768</v>
+      </c>
+      <c r="K32" s="52">
+        <f>SUM(D32:J32)</f>
+        <v>11985408</v>
+      </c>
+      <c r="L32" s="53">
+        <f>K6*K11*K21*K26</f>
+        <v>1920</v>
+      </c>
+      <c r="M32" s="63">
+        <f>K32</f>
+        <v>11985408</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="17" thickBot="1">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="51"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="D34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="6"/>
+      <c r="C35" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1</v>
+      </c>
+      <c r="G35" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2</v>
+      </c>
+      <c r="I35" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="14">
+        <v>3</v>
+      </c>
+      <c r="K35" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="49">
+        <f>D5*D10*D20*D25+D26*D20</f>
+        <v>2490368</v>
+      </c>
+      <c r="E36" s="49">
+        <f>E25*E20*E5</f>
+        <v>64800</v>
+      </c>
+      <c r="F36" s="49">
+        <f>F5*F10*F20*F25+F26*F20</f>
+        <v>2884096</v>
+      </c>
+      <c r="G36" s="49">
+        <f>G25*G20*G5</f>
+        <v>7056</v>
+      </c>
+      <c r="H36" s="49">
+        <f>H5*H10*H20*H25+H26*H20</f>
+        <v>629248</v>
+      </c>
+      <c r="I36" s="49">
+        <f>I25*I20*I5</f>
+        <v>2592</v>
+      </c>
+      <c r="J36" s="49">
+        <f>J5*J10*J20*J25+J26*J20</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="49">
+        <f>SUM(D36:J36)</f>
+        <v>6078160</v>
+      </c>
+      <c r="L36" s="49">
+        <f>K5*K10*K20*K25</f>
+        <v>2880</v>
+      </c>
+      <c r="M36" s="62">
+        <f>SUM(K36:L36)</f>
+        <v>6081040</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="17" thickBot="1">
+      <c r="B37" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="52">
+        <f>D6*D11*D21*D26+D26*D21</f>
+        <v>1720320</v>
+      </c>
+      <c r="E37" s="52">
+        <f>E26*E21*E6</f>
+        <v>61440</v>
+      </c>
+      <c r="F37" s="52">
+        <f>F6*F11*F21*F26+F26*F21</f>
+        <v>8309760</v>
+      </c>
+      <c r="G37" s="52">
+        <f>G26*G21*G6</f>
+        <v>15360</v>
+      </c>
+      <c r="H37" s="52">
+        <f>H6*H11*H21*H26+H26*H21</f>
+        <v>1938944</v>
+      </c>
+      <c r="I37" s="52">
+        <f>I26*I21*I6</f>
+        <v>3584</v>
+      </c>
+      <c r="J37" s="52">
+        <f>J6*J11*J21*J26+J26*J21</f>
+        <v>96960</v>
+      </c>
+      <c r="K37" s="52">
+        <f>SUM(D37:J37)</f>
+        <v>12146368</v>
+      </c>
+      <c r="L37" s="53">
+        <f>K6*K11*K21*K26</f>
+        <v>1920</v>
+      </c>
+      <c r="M37" s="63">
+        <f>K37</f>
+        <v>12146368</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="51"/>
+    </row>
+    <row r="39" spans="2:15" ht="17" thickBot="1"/>
+    <row r="40" spans="2:15">
+      <c r="B40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
+      <c r="N40" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="5"/>
-      <c r="U28" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="2:22">
-      <c r="B29" s="6"/>
-      <c r="C29" s="56" t="s">
+      <c r="C41" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="14">
-        <v>0</v>
-      </c>
-      <c r="E29" s="14">
-        <v>1</v>
-      </c>
-      <c r="F29" s="14">
-        <v>2</v>
-      </c>
-      <c r="G29" s="14">
-        <v>3</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="14" t="s">
+      <c r="C42" s="7">
+        <v>96</v>
+      </c>
+      <c r="D42" s="46">
+        <f>M31</f>
+        <v>5967680</v>
+      </c>
+      <c r="E42" s="25">
+        <v>236.54</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" ref="F42:F47" si="0">E42/1000/D42</f>
+        <v>3.9636843798595096E-8</v>
+      </c>
+      <c r="G42" s="33">
+        <f t="shared" ref="G42:G47" si="1">1/F42</f>
+        <v>25229052.168766383</v>
+      </c>
+      <c r="H42" s="33">
+        <f>G42/C42</f>
+        <v>262802.62675798318</v>
+      </c>
+      <c r="I42" s="44">
+        <f>E42*J42</f>
+        <v>2649.2479999999996</v>
+      </c>
+      <c r="J42" s="26">
+        <v>11.2</v>
+      </c>
+      <c r="K42" s="57">
+        <f>I42/D42/1000000</f>
+        <v>4.4393265054426499E-10</v>
+      </c>
+      <c r="L42" s="56">
+        <f>1/K42</f>
+        <v>2252593943.6398563</v>
+      </c>
+      <c r="N42" s="12"/>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q29" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="U29" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="V29" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22">
-      <c r="B30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="7">
-        <v>96</v>
-      </c>
-      <c r="D30" s="49">
-        <f>D4*D9*D19*D24</f>
-        <v>2457600</v>
-      </c>
-      <c r="E30" s="49">
-        <f>E4*E9*E19*E24</f>
-        <v>2880000</v>
-      </c>
-      <c r="F30" s="49">
-        <f>F4*F9*F19*F24</f>
-        <v>627200</v>
-      </c>
-      <c r="G30" s="49">
-        <f>G4*G9*G19*G24</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="49">
-        <f>SUM(D30:G30)</f>
-        <v>5964800</v>
-      </c>
-      <c r="I30" s="50">
-        <f>I4*I9*I19*I24</f>
-        <v>2880</v>
-      </c>
-      <c r="J30" s="49">
-        <f>SUM(H30:I30)</f>
-        <v>5967680</v>
-      </c>
-      <c r="K30" s="46">
-        <v>5672320</v>
-      </c>
-      <c r="L30" s="25">
-        <v>236.54</v>
-      </c>
-      <c r="M30" s="7">
-        <f t="shared" ref="M30:M35" si="0">L30/1000/K30</f>
-        <v>4.1700750310278687E-8</v>
-      </c>
-      <c r="N30" s="33">
-        <f t="shared" ref="N30:N35" si="1">1/M30</f>
-        <v>23980383.867422</v>
-      </c>
-      <c r="O30" s="33">
-        <f t="shared" ref="O30:O35" si="2">N30/C30</f>
-        <v>249795.66528564584</v>
-      </c>
-      <c r="P30" s="44">
-        <f>L30*Q30</f>
-        <v>2649.2479999999996</v>
-      </c>
-      <c r="Q30" s="26">
-        <v>11.2</v>
-      </c>
-      <c r="R30" s="58">
-        <f>M30*Q30/1000</f>
-        <v>4.6704840347512127E-10</v>
-      </c>
-      <c r="S30" s="57">
-        <f>1/R30</f>
-        <v>2141105702.4483931</v>
-      </c>
-      <c r="U30" s="12"/>
-      <c r="V30" s="9"/>
-    </row>
-    <row r="31" spans="2:22">
-      <c r="B31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="C43" s="7">
         <f>121.95/4</f>
         <v>30.487500000000001</v>
       </c>
-      <c r="D31" s="49">
-        <f>D32</f>
-        <v>1658880</v>
-      </c>
-      <c r="E31" s="49">
-        <f t="shared" ref="E31:G31" si="3">E32</f>
-        <v>8294400</v>
-      </c>
-      <c r="F31" s="49">
-        <f t="shared" si="3"/>
-        <v>1935360</v>
-      </c>
-      <c r="G31" s="49">
-        <f t="shared" si="3"/>
-        <v>96768</v>
-      </c>
-      <c r="H31" s="49">
-        <f t="shared" ref="H31" si="4">H32</f>
+      <c r="D43" s="47">
+        <f>M32</f>
         <v>11985408</v>
       </c>
-      <c r="I31" s="51">
-        <f t="shared" ref="I31" si="5">I32</f>
-        <v>1920</v>
-      </c>
-      <c r="J31" s="52">
-        <f>H31</f>
-        <v>11985408</v>
-      </c>
-      <c r="K31" s="47">
-        <v>10901520</v>
-      </c>
-      <c r="L31" s="27">
+      <c r="E43" s="27">
         <v>2.809812</v>
       </c>
-      <c r="M31" s="7">
+      <c r="F43" s="7">
         <f t="shared" si="0"/>
-        <v>2.5774497501265877E-10</v>
-      </c>
-      <c r="N31" s="33">
+        <v>2.3443607426630781E-10</v>
+      </c>
+      <c r="G43" s="33">
         <f t="shared" si="1"/>
-        <v>3879804058.0650949</v>
-      </c>
-      <c r="O31" s="33">
-        <f t="shared" si="2"/>
-        <v>127258845.69299205</v>
-      </c>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="23"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="9"/>
-    </row>
-    <row r="32" spans="2:22">
-      <c r="B32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="7">
+        <v>4265555133.2259955</v>
+      </c>
+      <c r="H43" s="33">
+        <f>G43/C43</f>
+        <v>139911607.4858875</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="23"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="7">
         <f>31.44/2</f>
         <v>15.72</v>
       </c>
-      <c r="D32" s="49">
-        <f>D5*D10*D20*D25</f>
-        <v>1658880</v>
-      </c>
-      <c r="E32" s="49">
-        <f>E5*E10*E20*E25</f>
-        <v>8294400</v>
-      </c>
-      <c r="F32" s="49">
-        <f>F5*F10*F20*F25</f>
-        <v>1935360</v>
-      </c>
-      <c r="G32" s="49">
-        <f>G5*G10*G20*G25</f>
-        <v>96768</v>
-      </c>
-      <c r="H32" s="49">
-        <f>SUM(D32:G32)</f>
+      <c r="D44" s="47">
+        <f>M32</f>
         <v>11985408</v>
       </c>
-      <c r="I32" s="51">
-        <f>I5*I10*I20*I25</f>
-        <v>1920</v>
-      </c>
-      <c r="J32" s="52">
-        <f>H32</f>
-        <v>11985408</v>
-      </c>
-      <c r="K32" s="47">
-        <v>10901520</v>
-      </c>
-      <c r="L32" s="27">
+      <c r="E44" s="27">
         <v>5.4</v>
       </c>
-      <c r="M32" s="7">
+      <c r="F44" s="7">
         <f t="shared" si="0"/>
-        <v>4.953437685753913E-10</v>
-      </c>
-      <c r="N32" s="33">
+        <v>4.5054786620530567E-10</v>
+      </c>
+      <c r="G44" s="33">
         <f t="shared" si="1"/>
-        <v>2018800000</v>
-      </c>
-      <c r="O32" s="33">
-        <f t="shared" si="2"/>
-        <v>128422391.85750635</v>
-      </c>
-      <c r="P32" s="20">
+        <v>2219520000</v>
+      </c>
+      <c r="H44" s="33">
+        <f>G44/C44</f>
+        <v>141190839.69465649</v>
+      </c>
+      <c r="I44" s="20">
         <v>43</v>
       </c>
-      <c r="Q32" s="26">
-        <f>P32/L32</f>
+      <c r="J44" s="26">
+        <f>I44/E44</f>
         <v>7.9629629629629628</v>
       </c>
-      <c r="R32" s="59">
-        <f>P32/H32/1000000</f>
+      <c r="K44" s="57">
+        <f>I44/D44/1000000</f>
         <v>3.5876959716348413E-12</v>
       </c>
-      <c r="S32" s="21">
-        <f>1/R32</f>
+      <c r="L44" s="21">
+        <f>1/K44</f>
         <v>278730418604.65118</v>
       </c>
-      <c r="U32" s="35">
-        <f>R$30/R32</f>
-        <v>130.18059700925457</v>
-      </c>
-      <c r="V32" s="36">
-        <f>O32/O$30</f>
-        <v>514.10976932146934</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22">
-      <c r="B33" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="24">
+      <c r="N44" s="35">
+        <f>K$42/K44</f>
+        <v>123.7375335184753</v>
+      </c>
+      <c r="O44" s="36">
+        <f>H44/H$42</f>
+        <v>537.25048884187959</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="24">
         <f>100/2</f>
         <v>50</v>
       </c>
-      <c r="D33" s="49">
-        <f>D32</f>
-        <v>1658880</v>
-      </c>
-      <c r="E33" s="49">
-        <f t="shared" ref="E33:G33" si="6">E32</f>
-        <v>8294400</v>
-      </c>
-      <c r="F33" s="49">
-        <f t="shared" si="6"/>
-        <v>1935360</v>
-      </c>
-      <c r="G33" s="49">
-        <f t="shared" si="6"/>
-        <v>96768</v>
-      </c>
-      <c r="H33" s="49">
-        <f>SUM(D33:G33)</f>
+      <c r="D45" s="47">
+        <f>M32</f>
         <v>11985408</v>
       </c>
-      <c r="I33" s="51">
-        <f>I32</f>
-        <v>1920</v>
-      </c>
-      <c r="J33" s="52">
-        <f>H33</f>
-        <v>11985408</v>
-      </c>
-      <c r="K33" s="47">
-        <v>10901520</v>
-      </c>
-      <c r="L33" s="27">
+      <c r="E45" s="27">
         <v>1.7</v>
       </c>
-      <c r="M33" s="7">
+      <c r="F45" s="7">
         <f t="shared" si="0"/>
-        <v>1.559415567737343E-10</v>
-      </c>
-      <c r="N33" s="33">
+        <v>1.4183914306463326E-10</v>
+      </c>
+      <c r="G45" s="33">
         <f t="shared" si="1"/>
-        <v>6412658823.5294123</v>
-      </c>
-      <c r="O33" s="33">
-        <f t="shared" si="2"/>
-        <v>128253176.47058825</v>
-      </c>
-      <c r="P33" s="20">
+        <v>7050240000</v>
+      </c>
+      <c r="H45" s="33">
+        <f>G45/C45</f>
+        <v>141004800</v>
+      </c>
+      <c r="I45" s="20">
         <v>34.6</v>
       </c>
-      <c r="Q33" s="26">
-        <f>P33/L33</f>
+      <c r="J45" s="26">
+        <f>I45/E45</f>
         <v>20.352941176470591</v>
       </c>
-      <c r="R33" s="59">
-        <f>P33/H33/1000000</f>
+      <c r="K45" s="57">
+        <f>I45/D45/1000000</f>
         <v>2.886843735315477E-12</v>
       </c>
-      <c r="S33" s="21">
-        <f>1/R33</f>
+      <c r="L45" s="21">
+        <f>1/K45</f>
         <v>346399075144.50867</v>
       </c>
-      <c r="U33" s="35">
-        <f>R$30/R33</f>
-        <v>161.78513501150132</v>
-      </c>
-      <c r="V33" s="36">
-        <f>O33/O$30</f>
-        <v>513.43235409601061</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22">
-      <c r="B34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="N45" s="35">
+        <f>K$42/K45</f>
+        <v>153.77785957498375</v>
+      </c>
+      <c r="O45" s="36">
+        <f>H45/H$42</f>
+        <v>536.54258231540564</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="7">
         <f>31.44/2</f>
         <v>15.72</v>
       </c>
-      <c r="D34" s="49">
-        <f>D32</f>
-        <v>1658880</v>
-      </c>
-      <c r="E34" s="49">
-        <f t="shared" ref="E34:G34" si="7">E32</f>
-        <v>8294400</v>
-      </c>
-      <c r="F34" s="49">
-        <f t="shared" si="7"/>
-        <v>1935360</v>
-      </c>
-      <c r="G34" s="49">
-        <f t="shared" si="7"/>
-        <v>96768</v>
-      </c>
-      <c r="H34" s="49">
-        <f>SUM(D34:G34)</f>
+      <c r="D46" s="47">
+        <f>M32</f>
         <v>11985408</v>
       </c>
-      <c r="I34" s="51">
-        <f>I33</f>
-        <v>1920</v>
-      </c>
-      <c r="J34" s="52">
-        <f>H34</f>
-        <v>11985408</v>
-      </c>
-      <c r="K34" s="47">
-        <v>10901520</v>
-      </c>
-      <c r="L34" s="27">
+      <c r="E46" s="27">
         <v>5.4</v>
       </c>
-      <c r="M34" s="7">
+      <c r="F46" s="7">
         <f t="shared" si="0"/>
-        <v>4.953437685753913E-10</v>
-      </c>
-      <c r="N34" s="33">
+        <v>4.5054786620530567E-10</v>
+      </c>
+      <c r="G46" s="33">
         <f t="shared" si="1"/>
-        <v>2018800000</v>
-      </c>
-      <c r="O34" s="33">
-        <f t="shared" si="2"/>
-        <v>128422391.85750635</v>
-      </c>
-      <c r="P34" s="20">
+        <v>2219520000</v>
+      </c>
+      <c r="H46" s="33">
+        <f>G46/C46</f>
+        <v>141190839.69465649</v>
+      </c>
+      <c r="I46" s="20">
         <v>26.6</v>
       </c>
-      <c r="Q34" s="26">
-        <f>P34/L34</f>
+      <c r="J46" s="26">
+        <f>I46/E46</f>
         <v>4.9259259259259256</v>
       </c>
-      <c r="R34" s="59">
-        <f>P34/H34/1000000</f>
+      <c r="K46" s="57">
+        <f>I46/D46/1000000</f>
         <v>2.2193654150113206E-12</v>
       </c>
-      <c r="S34" s="21">
-        <f>1/R34</f>
+      <c r="L46" s="21">
+        <f>1/K46</f>
         <v>450579248120.30072</v>
       </c>
-      <c r="U34" s="35">
-        <f>R$30/R34</f>
-        <v>210.44231847360697</v>
-      </c>
-      <c r="V34" s="36">
-        <f>O34/O$30</f>
-        <v>514.10976932146934</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" ht="17" thickBot="1">
-      <c r="B35" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="32">
+      <c r="N46" s="35">
+        <f>K$42/K46</f>
+        <v>200.02683989828714</v>
+      </c>
+      <c r="O46" s="36">
+        <f>H46/H$42</f>
+        <v>537.25048884187959</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="17" thickBot="1">
+      <c r="B47" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="32">
         <f>46/2</f>
         <v>23</v>
       </c>
-      <c r="D35" s="53">
-        <f>D32</f>
-        <v>1658880</v>
-      </c>
-      <c r="E35" s="53">
-        <f>E32</f>
-        <v>8294400</v>
-      </c>
-      <c r="F35" s="53">
-        <f t="shared" ref="F35:I35" si="8">F32</f>
-        <v>1935360</v>
-      </c>
-      <c r="G35" s="53">
-        <f t="shared" si="8"/>
-        <v>96768</v>
-      </c>
-      <c r="H35" s="53">
-        <f t="shared" si="8"/>
+      <c r="D47" s="48">
+        <f>M32</f>
         <v>11985408</v>
       </c>
-      <c r="I35" s="54">
-        <f t="shared" si="8"/>
-        <v>1920</v>
-      </c>
-      <c r="J35" s="53">
-        <f>H35</f>
-        <v>11985408</v>
-      </c>
-      <c r="K35" s="48">
-        <v>10901520</v>
-      </c>
-      <c r="L35" s="41">
+      <c r="E47" s="41">
         <v>3.7</v>
       </c>
-      <c r="M35" s="11">
+      <c r="F47" s="11">
         <f t="shared" si="0"/>
-        <v>3.3940221180165703E-10</v>
-      </c>
-      <c r="N35" s="34">
+        <v>3.0870872314067238E-10</v>
+      </c>
+      <c r="G47" s="34">
         <f t="shared" si="1"/>
-        <v>2946356756.7567568</v>
-      </c>
-      <c r="O35" s="34">
+        <v>3239299459.4594598</v>
+      </c>
+      <c r="H47" s="34">
+        <f>G47/C47</f>
+        <v>140839106.93302</v>
+      </c>
+      <c r="I47" s="60">
+        <v>18.5</v>
+      </c>
+      <c r="J47" s="43">
+        <f>I47/E47</f>
+        <v>5</v>
+      </c>
+      <c r="K47" s="58">
+        <f>I47/D47/1000000</f>
+        <v>1.5435436157033621E-12</v>
+      </c>
+      <c r="L47" s="18">
+        <f>1/K47</f>
+        <v>647859891891.89185</v>
+      </c>
+      <c r="N47" s="37">
+        <f>K$42/K47</f>
+        <v>287.60615898888852</v>
+      </c>
+      <c r="O47" s="38">
+        <f>H47/H$42</f>
+        <v>535.91209749482357</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" ht="17" thickBot="1"/>
+    <row r="50" spans="2:15">
+      <c r="B50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="D50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="5"/>
+      <c r="N50" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N51" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="O51" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="7">
+        <v>96</v>
+      </c>
+      <c r="D52" s="46">
+        <f>M36</f>
+        <v>6081040</v>
+      </c>
+      <c r="E52" s="25">
+        <v>236.54</v>
+      </c>
+      <c r="F52" s="7">
+        <f t="shared" ref="F52:F57" si="2">E52/1000/D52</f>
+        <v>3.8897951666162365E-8</v>
+      </c>
+      <c r="G52" s="33">
+        <f t="shared" ref="G52:G57" si="3">1/F52</f>
+        <v>25708294.580197852</v>
+      </c>
+      <c r="H52" s="33">
+        <f>G52/C52</f>
+        <v>267794.73521039431</v>
+      </c>
+      <c r="I52" s="44">
+        <f>E52*J52</f>
+        <v>2649.2479999999996</v>
+      </c>
+      <c r="J52" s="26">
+        <v>11.2</v>
+      </c>
+      <c r="K52" s="57">
+        <f>I52/D52/1000000</f>
+        <v>4.356570586610184E-10</v>
+      </c>
+      <c r="L52" s="56">
+        <f>1/K52</f>
+        <v>2295383444.6605229</v>
+      </c>
+      <c r="N52" s="12"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="7">
+        <f>121.95/4</f>
+        <v>30.487500000000001</v>
+      </c>
+      <c r="D53" s="47">
+        <f>M37</f>
+        <v>12146368</v>
+      </c>
+      <c r="E53" s="27">
+        <v>2.809812</v>
+      </c>
+      <c r="F53" s="7">
         <f t="shared" si="2"/>
-        <v>128102467.68507639</v>
-      </c>
-      <c r="P35" s="62">
+        <v>2.3132939822010991E-10</v>
+      </c>
+      <c r="G53" s="33">
+        <f t="shared" si="3"/>
+        <v>4322840104.6048632</v>
+      </c>
+      <c r="H53" s="33">
+        <f>G53/C53</f>
+        <v>141790573.33677289</v>
+      </c>
+      <c r="I53" s="19"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="23"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="7">
+        <f>31.44/2</f>
+        <v>15.72</v>
+      </c>
+      <c r="D54" s="47">
+        <f>M37</f>
+        <v>12146368</v>
+      </c>
+      <c r="E54" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="F54" s="7">
+        <f t="shared" si="2"/>
+        <v>4.4457734196757422E-10</v>
+      </c>
+      <c r="G54" s="33">
+        <f t="shared" si="3"/>
+        <v>2249327407.4074073</v>
+      </c>
+      <c r="H54" s="33">
+        <f>G54/C54</f>
+        <v>143086985.20403352</v>
+      </c>
+      <c r="I54" s="20">
+        <v>43</v>
+      </c>
+      <c r="J54" s="26">
+        <f>I54/E54</f>
+        <v>7.9629629629629628</v>
+      </c>
+      <c r="K54" s="57">
+        <f>I54/D54/1000000</f>
+        <v>3.5401529082603129E-12</v>
+      </c>
+      <c r="L54" s="21">
+        <f>1/K54</f>
+        <v>282473674418.60468</v>
+      </c>
+      <c r="N54" s="35">
+        <f>K$42/K54</f>
+        <v>125.39928699362891</v>
+      </c>
+      <c r="O54" s="36">
+        <f>H54/H$42</f>
+        <v>544.46558228583979</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="24">
+        <f>100/2</f>
+        <v>50</v>
+      </c>
+      <c r="D55" s="47">
+        <f>M37</f>
+        <v>12146368</v>
+      </c>
+      <c r="E55" s="27">
+        <v>1.7</v>
+      </c>
+      <c r="F55" s="7">
+        <f t="shared" si="2"/>
+        <v>1.3995953358238445E-10</v>
+      </c>
+      <c r="G55" s="33">
+        <f t="shared" si="3"/>
+        <v>7144922352.9411764</v>
+      </c>
+      <c r="H55" s="33">
+        <f>G55/C55</f>
+        <v>142898447.05882353</v>
+      </c>
+      <c r="I55" s="20">
+        <v>34.6</v>
+      </c>
+      <c r="J55" s="26">
+        <f>I55/E55</f>
+        <v>20.352941176470591</v>
+      </c>
+      <c r="K55" s="57">
+        <f>I55/D55/1000000</f>
+        <v>2.8485881540885306E-12</v>
+      </c>
+      <c r="L55" s="21">
+        <f>1/K55</f>
+        <v>351051098265.896</v>
+      </c>
+      <c r="N55" s="35">
+        <f>K$42/K55</f>
+        <v>155.84304452965443</v>
+      </c>
+      <c r="O55" s="36">
+        <f>H55/H$42</f>
+        <v>543.74816881271022</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="7">
+        <f>31.44/2</f>
+        <v>15.72</v>
+      </c>
+      <c r="D56" s="47">
+        <f>M37</f>
+        <v>12146368</v>
+      </c>
+      <c r="E56" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="2"/>
+        <v>4.4457734196757422E-10</v>
+      </c>
+      <c r="G56" s="33">
+        <f t="shared" si="3"/>
+        <v>2249327407.4074073</v>
+      </c>
+      <c r="H56" s="33">
+        <f>G56/C56</f>
+        <v>143086985.20403352</v>
+      </c>
+      <c r="I56" s="20">
+        <v>26.6</v>
+      </c>
+      <c r="J56" s="26">
+        <f>I56/E56</f>
+        <v>4.9259259259259256</v>
+      </c>
+      <c r="K56" s="57">
+        <f>I56/D56/1000000</f>
+        <v>2.1899550548773102E-12</v>
+      </c>
+      <c r="L56" s="21">
+        <f>1/K56</f>
+        <v>456630375939.84955</v>
+      </c>
+      <c r="N56" s="35">
+        <f>K$42/K56</f>
+        <v>202.71313311000159</v>
+      </c>
+      <c r="O56" s="36">
+        <f>H56/H$42</f>
+        <v>544.46558228583979</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" ht="17" thickBot="1">
+      <c r="B57" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="32">
+        <f>46/2</f>
+        <v>23</v>
+      </c>
+      <c r="D57" s="48">
+        <f>M37</f>
+        <v>12146368</v>
+      </c>
+      <c r="E57" s="41">
+        <v>3.7</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="2"/>
+        <v>3.0461780838518974E-10</v>
+      </c>
+      <c r="G57" s="34">
+        <f t="shared" si="3"/>
+        <v>3282802162.1621618</v>
+      </c>
+      <c r="H57" s="34">
+        <f>G57/C57</f>
+        <v>142730528.7896592</v>
+      </c>
+      <c r="I57" s="60">
         <v>18.5</v>
       </c>
-      <c r="Q35" s="43">
-        <f>P35/L35</f>
+      <c r="J57" s="43">
+        <f>I57/E57</f>
         <v>5</v>
       </c>
-      <c r="R35" s="60">
-        <f>P35/H35/1000000</f>
-        <v>1.5435436157033621E-12</v>
-      </c>
-      <c r="S35" s="18">
-        <f>1/R35</f>
-        <v>647859891891.89185</v>
-      </c>
-      <c r="U35" s="37">
-        <f>R$30/R35</f>
-        <v>302.58192818367274</v>
-      </c>
-      <c r="V35" s="38">
-        <f>O35/O$30</f>
-        <v>512.82902583032785</v>
+      <c r="K57" s="58">
+        <f>I57/D57/1000000</f>
+        <v>1.5230890419259486E-12</v>
+      </c>
+      <c r="L57" s="18">
+        <f>1/K57</f>
+        <v>656560432432.43237</v>
+      </c>
+      <c r="N57" s="37">
+        <f>K$42/K57</f>
+        <v>291.46861301221855</v>
+      </c>
+      <c r="O57" s="38">
+        <f>H57/H$42</f>
+        <v>543.10921679295382</v>
       </c>
     </row>
   </sheetData>

--- a/AI84 vs Arm Model.xlsx
+++ b/AI84 vs Arm Model.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.muchsel/Documents/Source/ai84/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210DACD1-81F5-CC41-BFBF-D679AA398971}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA0455F-4901-2645-B799-0B29F6E5D9F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="460" windowWidth="39220" windowHeight="25000" xr2:uid="{4AA6D0C7-A62E-F548-98BD-7B50E7867754}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{4AA6D0C7-A62E-F548-98BD-7B50E7867754}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AI84Net5" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
   <si>
     <t>FC</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>ME11 vs AI84 (MAC):</t>
+  </si>
+  <si>
+    <t>AI84 0.9V (70 MHz)</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,15 +217,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -230,12 +224,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -381,9 +381,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -454,11 +454,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -468,6 +467,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -784,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64050710-60CE-6449-AD77-7E6717109F43}">
-  <dimension ref="B1:O57"/>
+  <dimension ref="B1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -802,22 +803,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="21" thickBot="1">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="2:15" ht="18" thickTop="1" thickBot="1"/>
     <row r="3" spans="2:15">
@@ -842,25 +843,25 @@
       <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="65" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="65" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="14">
         <v>2</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="65" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="14">
         <v>3</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="66" t="s">
         <v>0</v>
       </c>
     </row>
@@ -948,19 +949,19 @@
       <c r="D9" s="14">
         <v>0</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="65" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="65" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="14">
         <v>2</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="65" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="14">
@@ -1062,19 +1063,19 @@
       <c r="D14" s="14">
         <v>0</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="65" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="14">
         <v>1</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="65" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="14">
         <v>2</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="65" t="s">
         <v>28</v>
       </c>
       <c r="J14" s="14">
@@ -1174,19 +1175,19 @@
       <c r="D19" s="14">
         <v>0</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="65" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="14">
         <v>1</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="65" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="14">
         <v>2</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="65" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="14">
@@ -1279,19 +1280,19 @@
       <c r="D24" s="14">
         <v>0</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="65" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="14">
         <v>1</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="65" t="s">
         <v>28</v>
       </c>
       <c r="H24" s="14">
         <v>2</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="65" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="14">
@@ -1407,10 +1408,10 @@
       <c r="J30" s="14">
         <v>3</v>
       </c>
-      <c r="K30" s="65" t="s">
+      <c r="K30" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="65" t="s">
+      <c r="L30" s="64" t="s">
         <v>0</v>
       </c>
       <c r="M30" s="15" t="s">
@@ -1445,11 +1446,11 @@
         <f>SUM(D31:J31)</f>
         <v>5964800</v>
       </c>
-      <c r="L31" s="61">
+      <c r="L31" s="60">
         <f>K5*K10*K20*K25</f>
         <v>2880</v>
       </c>
-      <c r="M31" s="62">
+      <c r="M31" s="61">
         <f>SUM(K31:L31)</f>
         <v>5967680</v>
       </c>
@@ -1486,7 +1487,7 @@
         <f>K6*K11*K21*K26</f>
         <v>1920</v>
       </c>
-      <c r="M32" s="63">
+      <c r="M32" s="62">
         <f>K32</f>
         <v>11985408</v>
       </c>
@@ -1528,28 +1529,28 @@
       <c r="D35" s="14">
         <v>0</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="65" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="14">
         <v>1</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="65" t="s">
         <v>28</v>
       </c>
       <c r="H35" s="14">
         <v>2</v>
       </c>
-      <c r="I35" s="66" t="s">
+      <c r="I35" s="65" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="14">
         <v>3</v>
       </c>
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="L35" s="65" t="s">
+      <c r="L35" s="64" t="s">
         <v>0</v>
       </c>
       <c r="M35" s="15" t="s">
@@ -1597,7 +1598,7 @@
         <f>K5*K10*K20*K25</f>
         <v>2880</v>
       </c>
-      <c r="M36" s="62">
+      <c r="M36" s="61">
         <f>SUM(K36:L36)</f>
         <v>6081040</v>
       </c>
@@ -1643,7 +1644,7 @@
         <f>K6*K11*K21*K26</f>
         <v>1920</v>
       </c>
-      <c r="M37" s="63">
+      <c r="M37" s="62">
         <f>K37</f>
         <v>12146368</v>
       </c>
@@ -1737,15 +1738,15 @@
         <v>236.54</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" ref="F42:F47" si="0">E42/1000/D42</f>
+        <f t="shared" ref="F42:F48" si="0">E42/1000/D42</f>
         <v>3.9636843798595096E-8</v>
       </c>
       <c r="G42" s="33">
-        <f t="shared" ref="G42:G47" si="1">1/F42</f>
+        <f t="shared" ref="G42:G48" si="1">1/F42</f>
         <v>25229052.168766383</v>
       </c>
       <c r="H42" s="33">
-        <f>G42/C42</f>
+        <f t="shared" ref="H42:H48" si="2">G42/C42</f>
         <v>262802.62675798318</v>
       </c>
       <c r="I42" s="44">
@@ -1790,7 +1791,7 @@
         <v>4265555133.2259955</v>
       </c>
       <c r="H43" s="33">
-        <f>G43/C43</f>
+        <f t="shared" si="2"/>
         <v>139911607.4858875</v>
       </c>
       <c r="I43" s="19"/>
@@ -1824,27 +1825,28 @@
         <v>2219520000</v>
       </c>
       <c r="H44" s="33">
-        <f>G44/C44</f>
+        <f t="shared" si="2"/>
         <v>141190839.69465649</v>
       </c>
       <c r="I44" s="20">
-        <v>43</v>
+        <f>E44*J44</f>
+        <v>43.777800000000006</v>
       </c>
       <c r="J44" s="26">
-        <f>I44/E44</f>
-        <v>7.9629629629629628</v>
+        <f>7.37*1.1</f>
+        <v>8.1070000000000011</v>
       </c>
       <c r="K44" s="57">
         <f>I44/D44/1000000</f>
-        <v>3.5876959716348413E-12</v>
+        <v>3.6525915513264132E-12</v>
       </c>
       <c r="L44" s="21">
         <f>1/K44</f>
-        <v>278730418604.65118</v>
+        <v>273778216356.23532</v>
       </c>
       <c r="N44" s="35">
         <f>K$42/K44</f>
-        <v>123.7375335184753</v>
+        <v>121.53908924830479</v>
       </c>
       <c r="O44" s="36">
         <f>H44/H$42</f>
@@ -1875,27 +1877,28 @@
         <v>7050240000</v>
       </c>
       <c r="H45" s="33">
-        <f>G45/C45</f>
+        <f t="shared" si="2"/>
         <v>141004800</v>
       </c>
       <c r="I45" s="20">
-        <v>34.6</v>
+        <f>E45*J45</f>
+        <v>36.7455</v>
       </c>
       <c r="J45" s="26">
-        <f>I45/E45</f>
-        <v>20.352941176470591</v>
+        <f>19.65*1.1</f>
+        <v>21.614999999999998</v>
       </c>
       <c r="K45" s="57">
         <f>I45/D45/1000000</f>
-        <v>2.886843735315477E-12</v>
+        <v>3.0658530773420481E-12</v>
       </c>
       <c r="L45" s="21">
         <f>1/K45</f>
-        <v>346399075144.50867</v>
+        <v>326173490631.50586</v>
       </c>
       <c r="N45" s="35">
         <f>K$42/K45</f>
-        <v>153.77785957498375</v>
+        <v>144.7990622333194</v>
       </c>
       <c r="O45" s="36">
         <f>H45/H$42</f>
@@ -1904,448 +1907,558 @@
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
+        <v>46</v>
+      </c>
+      <c r="C46" s="24">
+        <f>70/2</f>
+        <v>35</v>
       </c>
       <c r="D46" s="47">
         <f>M32</f>
         <v>11985408</v>
       </c>
       <c r="E46" s="27">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="F46" s="24">
+        <f t="shared" si="0"/>
+        <v>2.0374775727284378E-10</v>
+      </c>
+      <c r="G46" s="33">
+        <f t="shared" si="1"/>
+        <v>4908029484.0294838</v>
+      </c>
+      <c r="H46" s="33">
+        <f t="shared" si="2"/>
+        <v>140229413.82941383</v>
+      </c>
+      <c r="I46" s="20">
+        <f>E46*J46</f>
+        <v>24.329646000000004</v>
+      </c>
+      <c r="J46" s="26">
+        <f>11.07*0.9</f>
+        <v>9.963000000000001</v>
+      </c>
+      <c r="K46" s="57">
+        <f>I46/D46/1000000</f>
+        <v>2.0299389057093431E-12</v>
+      </c>
+      <c r="L46" s="21">
+        <f>1/K46</f>
+        <v>492625663357.37054</v>
+      </c>
+      <c r="N46" s="68">
+        <f>K$42/K46</f>
+        <v>218.69261646036432</v>
+      </c>
+      <c r="O46" s="36">
+        <f>H46/H$42</f>
+        <v>533.59213170480257</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="7">
+        <f>31.44/2</f>
+        <v>15.72</v>
+      </c>
+      <c r="D47" s="47">
+        <f>M32</f>
+        <v>11985408</v>
+      </c>
+      <c r="E47" s="27">
         <v>5.4</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="7">
         <f t="shared" si="0"/>
         <v>4.5054786620530567E-10</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G47" s="33">
         <f t="shared" si="1"/>
         <v>2219520000</v>
       </c>
-      <c r="H46" s="33">
-        <f>G46/C46</f>
+      <c r="H47" s="33">
+        <f t="shared" si="2"/>
         <v>141190839.69465649</v>
       </c>
-      <c r="I46" s="20">
-        <v>26.6</v>
-      </c>
-      <c r="J46" s="26">
-        <f>I46/E46</f>
-        <v>4.9259259259259256</v>
-      </c>
-      <c r="K46" s="57">
-        <f>I46/D46/1000000</f>
-        <v>2.2193654150113206E-12</v>
-      </c>
-      <c r="L46" s="21">
-        <f>1/K46</f>
-        <v>450579248120.30072</v>
-      </c>
-      <c r="N46" s="35">
-        <f>K$42/K46</f>
-        <v>200.02683989828714</v>
-      </c>
-      <c r="O46" s="36">
-        <f>H46/H$42</f>
+      <c r="I47" s="20">
+        <f>E47*J47</f>
+        <v>26.000999999999998</v>
+      </c>
+      <c r="J47" s="26">
+        <f>5.35*0.9</f>
+        <v>4.8149999999999995</v>
+      </c>
+      <c r="K47" s="57">
+        <f>I47/D47/1000000</f>
+        <v>2.1693879757785465E-12</v>
+      </c>
+      <c r="L47" s="21">
+        <f>1/K47</f>
+        <v>460959501557.63245</v>
+      </c>
+      <c r="N47" s="35">
+        <f>K$42/K47</f>
+        <v>204.634973320043</v>
+      </c>
+      <c r="O47" s="36">
+        <f>H47/H$42</f>
         <v>537.25048884187959</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="17" thickBot="1">
-      <c r="B47" s="22" t="s">
+    <row r="48" spans="2:15" ht="17" thickBot="1">
+      <c r="B48" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C48" s="32">
         <f>46/2</f>
         <v>23</v>
       </c>
-      <c r="D47" s="48">
+      <c r="D48" s="48">
         <f>M32</f>
         <v>11985408</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E48" s="41">
         <v>3.7</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <f t="shared" si="0"/>
         <v>3.0870872314067238E-10</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G48" s="34">
         <f t="shared" si="1"/>
         <v>3239299459.4594598</v>
       </c>
-      <c r="H47" s="34">
-        <f>G47/C47</f>
+      <c r="H48" s="34">
+        <f t="shared" si="2"/>
         <v>140839106.93302</v>
       </c>
-      <c r="I47" s="60">
-        <v>18.5</v>
-      </c>
-      <c r="J47" s="43">
-        <f>I47/E47</f>
-        <v>5</v>
-      </c>
-      <c r="K47" s="58">
-        <f>I47/D47/1000000</f>
-        <v>1.5435436157033621E-12</v>
-      </c>
-      <c r="L47" s="18">
-        <f>1/K47</f>
-        <v>647859891891.89185</v>
-      </c>
-      <c r="N47" s="37">
-        <f>K$42/K47</f>
-        <v>287.60615898888852</v>
-      </c>
-      <c r="O47" s="38">
-        <f>H47/H$42</f>
+      <c r="I48" s="67">
+        <f>E48*J48</f>
+        <v>25.241400000000002</v>
+      </c>
+      <c r="J48" s="43">
+        <f>7.58*0.9</f>
+        <v>6.8220000000000001</v>
+      </c>
+      <c r="K48" s="58">
+        <f>I48/D48/1000000</f>
+        <v>2.1060109092656672E-12</v>
+      </c>
+      <c r="L48" s="18">
+        <f>1/K48</f>
+        <v>474831348498.89465</v>
+      </c>
+      <c r="N48" s="37">
+        <f>K$42/K48</f>
+        <v>210.79313910062189</v>
+      </c>
+      <c r="O48" s="38">
+        <f>H48/H$42</f>
         <v>535.91209749482357</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="17" thickBot="1"/>
-    <row r="50" spans="2:15">
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="2:15" ht="17" thickBot="1"/>
+    <row r="51" spans="2:15">
+      <c r="B51" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="3" t="s">
+      <c r="C51" s="54"/>
+      <c r="D51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="5"/>
-      <c r="N50" s="59" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="5"/>
+      <c r="N51" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="2:15">
-      <c r="B51" s="6" t="s">
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C52" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D52" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E52" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F52" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="42" t="s">
+      <c r="G52" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H52" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I51" s="40" t="s">
+      <c r="I52" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="40" t="s">
+      <c r="J52" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K51" s="14" t="s">
+      <c r="K52" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L51" s="16" t="s">
+      <c r="L52" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N51" s="39" t="s">
+      <c r="N52" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O51" s="16" t="s">
+      <c r="O52" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:15">
-      <c r="B52" s="12" t="s">
+    <row r="53" spans="2:15">
+      <c r="B53" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C53" s="7">
         <v>96</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D53" s="46">
         <f>M36</f>
         <v>6081040</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E53" s="25">
         <v>236.54</v>
       </c>
-      <c r="F52" s="7">
-        <f t="shared" ref="F52:F57" si="2">E52/1000/D52</f>
+      <c r="F53" s="7">
+        <f t="shared" ref="F53:F59" si="3">E53/1000/D53</f>
         <v>3.8897951666162365E-8</v>
       </c>
-      <c r="G52" s="33">
-        <f t="shared" ref="G52:G57" si="3">1/F52</f>
+      <c r="G53" s="33">
+        <f t="shared" ref="G53:G59" si="4">1/F53</f>
         <v>25708294.580197852</v>
       </c>
-      <c r="H52" s="33">
-        <f>G52/C52</f>
+      <c r="H53" s="33">
+        <f t="shared" ref="H53:H59" si="5">G53/C53</f>
         <v>267794.73521039431</v>
       </c>
-      <c r="I52" s="44">
-        <f>E52*J52</f>
+      <c r="I53" s="44">
+        <f>E53*J53</f>
         <v>2649.2479999999996</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J53" s="26">
         <v>11.2</v>
       </c>
-      <c r="K52" s="57">
-        <f>I52/D52/1000000</f>
+      <c r="K53" s="57">
+        <f>I53/D53/1000000</f>
         <v>4.356570586610184E-10</v>
       </c>
-      <c r="L52" s="56">
-        <f>1/K52</f>
+      <c r="L53" s="56">
+        <f>1/K53</f>
         <v>2295383444.6605229</v>
       </c>
-      <c r="N52" s="12"/>
-      <c r="O52" s="9"/>
-    </row>
-    <row r="53" spans="2:15">
-      <c r="B53" s="12" t="s">
+      <c r="N53" s="12"/>
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C54" s="7">
         <f>121.95/4</f>
         <v>30.487500000000001</v>
-      </c>
-      <c r="D53" s="47">
-        <f>M37</f>
-        <v>12146368</v>
-      </c>
-      <c r="E53" s="27">
-        <v>2.809812</v>
-      </c>
-      <c r="F53" s="7">
-        <f t="shared" si="2"/>
-        <v>2.3132939822010991E-10</v>
-      </c>
-      <c r="G53" s="33">
-        <f t="shared" si="3"/>
-        <v>4322840104.6048632</v>
-      </c>
-      <c r="H53" s="33">
-        <f>G53/C53</f>
-        <v>141790573.33677289</v>
-      </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="23"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="9"/>
-    </row>
-    <row r="54" spans="2:15">
-      <c r="B54" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
       </c>
       <c r="D54" s="47">
         <f>M37</f>
         <v>12146368</v>
       </c>
       <c r="E54" s="27">
-        <v>5.4</v>
+        <v>2.809812</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="2"/>
-        <v>4.4457734196757422E-10</v>
+        <f t="shared" si="3"/>
+        <v>2.3132939822010991E-10</v>
       </c>
       <c r="G54" s="33">
-        <f t="shared" si="3"/>
-        <v>2249327407.4074073</v>
+        <f t="shared" si="4"/>
+        <v>4322840104.6048632</v>
       </c>
       <c r="H54" s="33">
-        <f>G54/C54</f>
-        <v>143086985.20403352</v>
-      </c>
-      <c r="I54" s="20">
-        <v>43</v>
-      </c>
-      <c r="J54" s="26">
-        <f>I54/E54</f>
-        <v>7.9629629629629628</v>
-      </c>
-      <c r="K54" s="57">
-        <f>I54/D54/1000000</f>
-        <v>3.5401529082603129E-12</v>
-      </c>
-      <c r="L54" s="21">
-        <f>1/K54</f>
-        <v>282473674418.60468</v>
-      </c>
-      <c r="N54" s="35">
-        <f>K$42/K54</f>
-        <v>125.39928699362891</v>
-      </c>
-      <c r="O54" s="36">
-        <f>H54/H$42</f>
-        <v>544.46558228583979</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>141790573.33677289</v>
+      </c>
+      <c r="I54" s="19"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="23"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="9"/>
     </row>
     <row r="55" spans="2:15">
       <c r="B55" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="24">
-        <f>100/2</f>
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="C55" s="7">
+        <f>31.44/2</f>
+        <v>15.72</v>
       </c>
       <c r="D55" s="47">
         <f>M37</f>
         <v>12146368</v>
       </c>
       <c r="E55" s="27">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3995953358238445E-10</v>
+        <f t="shared" si="3"/>
+        <v>4.4457734196757422E-10</v>
       </c>
       <c r="G55" s="33">
-        <f t="shared" si="3"/>
-        <v>7144922352.9411764</v>
+        <f t="shared" si="4"/>
+        <v>2249327407.4074073</v>
       </c>
       <c r="H55" s="33">
-        <f>G55/C55</f>
-        <v>142898447.05882353</v>
+        <f t="shared" si="5"/>
+        <v>143086985.20403352</v>
       </c>
       <c r="I55" s="20">
-        <v>34.6</v>
+        <f>E55*J55</f>
+        <v>43.777800000000006</v>
       </c>
       <c r="J55" s="26">
-        <f>I55/E55</f>
-        <v>20.352941176470591</v>
+        <f>7.37*1.1</f>
+        <v>8.1070000000000011</v>
       </c>
       <c r="K55" s="57">
         <f>I55/D55/1000000</f>
-        <v>2.8485881540885306E-12</v>
+        <v>3.6041885113311245E-12</v>
       </c>
       <c r="L55" s="21">
         <f>1/K55</f>
-        <v>351051098265.896</v>
+        <v>277454965758.90057</v>
       </c>
       <c r="N55" s="35">
         <f>K$42/K55</f>
-        <v>155.84304452965443</v>
+        <v>123.17131835601703</v>
       </c>
       <c r="O55" s="36">
         <f>H55/H$42</f>
-        <v>543.74816881271022</v>
+        <v>544.46558228583979</v>
       </c>
     </row>
     <row r="56" spans="2:15">
       <c r="B56" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
+        <v>21</v>
+      </c>
+      <c r="C56" s="24">
+        <f>100/2</f>
+        <v>50</v>
       </c>
       <c r="D56" s="47">
         <f>M37</f>
         <v>12146368</v>
       </c>
       <c r="E56" s="27">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="2"/>
-        <v>4.4457734196757422E-10</v>
+        <f t="shared" si="3"/>
+        <v>1.3995953358238445E-10</v>
       </c>
       <c r="G56" s="33">
-        <f t="shared" si="3"/>
-        <v>2249327407.4074073</v>
+        <f t="shared" si="4"/>
+        <v>7144922352.9411764</v>
       </c>
       <c r="H56" s="33">
-        <f>G56/C56</f>
-        <v>143086985.20403352</v>
+        <f t="shared" si="5"/>
+        <v>142898447.05882353</v>
       </c>
       <c r="I56" s="20">
-        <v>26.6</v>
+        <f>E56*J56</f>
+        <v>36.7455</v>
       </c>
       <c r="J56" s="26">
-        <f>I56/E56</f>
-        <v>4.9259259259259256</v>
+        <f>19.65*1.1</f>
+        <v>21.614999999999998</v>
       </c>
       <c r="K56" s="57">
         <f>I56/D56/1000000</f>
-        <v>2.1899550548773102E-12</v>
+        <v>3.0252253183832399E-12</v>
       </c>
       <c r="L56" s="21">
         <f>1/K56</f>
-        <v>456630375939.84955</v>
+        <v>330553890952.63367</v>
       </c>
       <c r="N56" s="35">
         <f>K$42/K56</f>
-        <v>202.71313311000159</v>
+        <v>146.7436649583226</v>
       </c>
       <c r="O56" s="36">
         <f>H56/H$42</f>
+        <v>543.74816881271022</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="24">
+        <f>70/2</f>
+        <v>35</v>
+      </c>
+      <c r="D57" s="47">
+        <f>M37</f>
+        <v>12146368</v>
+      </c>
+      <c r="E57" s="27">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" ref="F57" si="6">E57/1000/D57</f>
+        <v>2.0104775353422522E-10</v>
+      </c>
+      <c r="G57" s="33">
+        <f t="shared" ref="G57" si="7">1/F57</f>
+        <v>4973942669.9426699</v>
+      </c>
+      <c r="H57" s="33">
+        <f t="shared" ref="H57" si="8">G57/C57</f>
+        <v>142112647.71264771</v>
+      </c>
+      <c r="I57" s="20">
+        <f>E57*J57</f>
+        <v>24.329646000000004</v>
+      </c>
+      <c r="J57" s="26">
+        <f>11.07*0.9</f>
+        <v>9.963000000000001</v>
+      </c>
+      <c r="K57" s="57">
+        <f>I57/D57/1000000</f>
+        <v>2.0030387684614862E-12</v>
+      </c>
+      <c r="L57" s="21">
+        <f>1/K57</f>
+        <v>499241460397.73853</v>
+      </c>
+      <c r="N57" s="68">
+        <f>K$42/K57</f>
+        <v>221.62958477595777</v>
+      </c>
+      <c r="O57" s="36">
+        <f>H57/H$42</f>
+        <v>540.75809464233498</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="7">
+        <f>31.44/2</f>
+        <v>15.72</v>
+      </c>
+      <c r="D58" s="47">
+        <f>M37</f>
+        <v>12146368</v>
+      </c>
+      <c r="E58" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" si="3"/>
+        <v>4.4457734196757422E-10</v>
+      </c>
+      <c r="G58" s="33">
+        <f t="shared" si="4"/>
+        <v>2249327407.4074073</v>
+      </c>
+      <c r="H58" s="33">
+        <f t="shared" si="5"/>
+        <v>143086985.20403352</v>
+      </c>
+      <c r="I58" s="20">
+        <f>E58*J58</f>
+        <v>26.000999999999998</v>
+      </c>
+      <c r="J58" s="26">
+        <f>5.35*0.9</f>
+        <v>4.8149999999999995</v>
+      </c>
+      <c r="K58" s="57">
+        <f>I58/D58/1000000</f>
+        <v>2.1406399015738694E-12</v>
+      </c>
+      <c r="L58" s="21">
+        <f>1/K58</f>
+        <v>467150032691.05042</v>
+      </c>
+      <c r="N58" s="35">
+        <f>K$42/K58</f>
+        <v>207.38315221437804</v>
+      </c>
+      <c r="O58" s="36">
+        <f>H58/H$42</f>
         <v>544.46558228583979</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="17" thickBot="1">
-      <c r="B57" s="22" t="s">
+    <row r="59" spans="2:15" ht="17" thickBot="1">
+      <c r="B59" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C59" s="32">
         <f>46/2</f>
         <v>23</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D59" s="48">
         <f>M37</f>
         <v>12146368</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E59" s="41">
         <v>3.7</v>
       </c>
-      <c r="F57" s="11">
-        <f t="shared" si="2"/>
+      <c r="F59" s="11">
+        <f t="shared" si="3"/>
         <v>3.0461780838518974E-10</v>
       </c>
-      <c r="G57" s="34">
-        <f t="shared" si="3"/>
+      <c r="G59" s="34">
+        <f t="shared" si="4"/>
         <v>3282802162.1621618</v>
       </c>
-      <c r="H57" s="34">
-        <f>G57/C57</f>
+      <c r="H59" s="34">
+        <f t="shared" si="5"/>
         <v>142730528.7896592</v>
       </c>
-      <c r="I57" s="60">
-        <v>18.5</v>
-      </c>
-      <c r="J57" s="43">
-        <f>I57/E57</f>
-        <v>5</v>
-      </c>
-      <c r="K57" s="58">
-        <f>I57/D57/1000000</f>
-        <v>1.5230890419259486E-12</v>
-      </c>
-      <c r="L57" s="18">
-        <f>1/K57</f>
-        <v>656560432432.43237</v>
-      </c>
-      <c r="N57" s="37">
-        <f>K$42/K57</f>
-        <v>291.46861301221855</v>
-      </c>
-      <c r="O57" s="38">
-        <f>H57/H$42</f>
+      <c r="I59" s="67">
+        <f>E59*J59</f>
+        <v>25.241400000000002</v>
+      </c>
+      <c r="J59" s="43">
+        <f>7.58*0.9</f>
+        <v>6.8220000000000001</v>
+      </c>
+      <c r="K59" s="58">
+        <f>I59/D59/1000000</f>
+        <v>2.0781026888037644E-12</v>
+      </c>
+      <c r="L59" s="18">
+        <f>1/K59</f>
+        <v>481208173873.08148</v>
+      </c>
+      <c r="N59" s="37">
+        <f>K$42/K59</f>
+        <v>213.62402009104258</v>
+      </c>
+      <c r="O59" s="38">
+        <f>H59/H$42</f>
         <v>543.10921679295382</v>
       </c>
     </row>

--- a/AI84 vs Arm Model.xlsx
+++ b/AI84 vs Arm Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.muchsel/Documents/Source/ai84/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA0455F-4901-2645-B799-0B29F6E5D9F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB26A49B-9E78-FF41-9CEF-CA9E5C23E2C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{4AA6D0C7-A62E-F548-98BD-7B50E7867754}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
   <si>
     <t>FC</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>AI84 0.9V (70 MHz)</t>
+  </si>
+  <si>
+    <t>AI84 0.9V (70 MHz)/16</t>
   </si>
 </sst>
 </file>
@@ -785,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64050710-60CE-6449-AD77-7E6717109F43}">
-  <dimension ref="B1:O59"/>
+  <dimension ref="B1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1738,15 +1741,15 @@
         <v>236.54</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" ref="F42:F48" si="0">E42/1000/D42</f>
+        <f t="shared" ref="F42:F49" si="0">E42/1000/D42</f>
         <v>3.9636843798595096E-8</v>
       </c>
       <c r="G42" s="33">
-        <f t="shared" ref="G42:G48" si="1">1/F42</f>
+        <f t="shared" ref="G42:G49" si="1">1/F42</f>
         <v>25229052.168766383</v>
       </c>
       <c r="H42" s="33">
-        <f t="shared" ref="H42:H48" si="2">G42/C42</f>
+        <f t="shared" ref="H42:H49" si="2">G42/C42</f>
         <v>262802.62675798318</v>
       </c>
       <c r="I42" s="44">
@@ -1959,506 +1962,610 @@
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
+        <v>47</v>
+      </c>
+      <c r="C47" s="24">
+        <f>70/16</f>
+        <v>4.375</v>
       </c>
       <c r="D47" s="47">
         <f>M32</f>
         <v>11985408</v>
       </c>
       <c r="E47" s="27">
+        <v>19.57</v>
+      </c>
+      <c r="F47" s="24">
+        <f t="shared" si="0"/>
+        <v>1.6328188410440429E-9</v>
+      </c>
+      <c r="G47" s="33">
+        <f t="shared" si="1"/>
+        <v>612437812.97904956</v>
+      </c>
+      <c r="H47" s="33">
+        <f t="shared" si="2"/>
+        <v>139985785.82378277</v>
+      </c>
+      <c r="I47" s="20">
+        <f>E47*J47</f>
+        <v>35.225999999999999</v>
+      </c>
+      <c r="J47" s="26">
+        <f>0.9*2</f>
+        <v>1.8</v>
+      </c>
+      <c r="K47" s="57">
+        <f>I47/D47/1000000</f>
+        <v>2.939073913879277E-12</v>
+      </c>
+      <c r="L47" s="21">
+        <f>1/K47</f>
+        <v>340243229432.80536</v>
+      </c>
+      <c r="N47" s="35">
+        <f>K$42/K47</f>
+        <v>151.04507867184574</v>
+      </c>
+      <c r="O47" s="36">
+        <f>H47/H$42</f>
+        <v>532.6650937652031</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="7">
+        <f>31.44/2</f>
+        <v>15.72</v>
+      </c>
+      <c r="D48" s="47">
+        <f>M32</f>
+        <v>11985408</v>
+      </c>
+      <c r="E48" s="27">
         <v>5.4</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F48" s="7">
         <f t="shared" si="0"/>
         <v>4.5054786620530567E-10</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G48" s="33">
         <f t="shared" si="1"/>
         <v>2219520000</v>
       </c>
-      <c r="H47" s="33">
+      <c r="H48" s="33">
         <f t="shared" si="2"/>
         <v>141190839.69465649</v>
       </c>
-      <c r="I47" s="20">
-        <f>E47*J47</f>
+      <c r="I48" s="20">
+        <f>E48*J48</f>
         <v>26.000999999999998</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J48" s="26">
         <f>5.35*0.9</f>
         <v>4.8149999999999995</v>
       </c>
-      <c r="K47" s="57">
-        <f>I47/D47/1000000</f>
+      <c r="K48" s="57">
+        <f>I48/D48/1000000</f>
         <v>2.1693879757785465E-12</v>
       </c>
-      <c r="L47" s="21">
-        <f>1/K47</f>
+      <c r="L48" s="21">
+        <f>1/K48</f>
         <v>460959501557.63245</v>
       </c>
-      <c r="N47" s="35">
-        <f>K$42/K47</f>
+      <c r="N48" s="35">
+        <f>K$42/K48</f>
         <v>204.634973320043</v>
       </c>
-      <c r="O47" s="36">
-        <f>H47/H$42</f>
+      <c r="O48" s="36">
+        <f>H48/H$42</f>
         <v>537.25048884187959</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="17" thickBot="1">
-      <c r="B48" s="22" t="s">
+    <row r="49" spans="2:15" ht="17" thickBot="1">
+      <c r="B49" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C49" s="32">
         <f>46/2</f>
         <v>23</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D49" s="48">
         <f>M32</f>
         <v>11985408</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E49" s="41">
         <v>3.7</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <f t="shared" si="0"/>
         <v>3.0870872314067238E-10</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G49" s="34">
         <f t="shared" si="1"/>
         <v>3239299459.4594598</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H49" s="34">
         <f t="shared" si="2"/>
         <v>140839106.93302</v>
       </c>
-      <c r="I48" s="67">
-        <f>E48*J48</f>
+      <c r="I49" s="67">
+        <f>E49*J49</f>
         <v>25.241400000000002</v>
       </c>
-      <c r="J48" s="43">
+      <c r="J49" s="43">
         <f>7.58*0.9</f>
         <v>6.8220000000000001</v>
       </c>
-      <c r="K48" s="58">
-        <f>I48/D48/1000000</f>
+      <c r="K49" s="58">
+        <f>I49/D49/1000000</f>
         <v>2.1060109092656672E-12</v>
       </c>
-      <c r="L48" s="18">
-        <f>1/K48</f>
+      <c r="L49" s="18">
+        <f>1/K49</f>
         <v>474831348498.89465</v>
       </c>
-      <c r="N48" s="37">
-        <f>K$42/K48</f>
+      <c r="N49" s="37">
+        <f>K$42/K49</f>
         <v>210.79313910062189</v>
       </c>
-      <c r="O48" s="38">
-        <f>H48/H$42</f>
+      <c r="O49" s="38">
+        <f>H49/H$42</f>
         <v>535.91209749482357</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="17" thickBot="1"/>
-    <row r="51" spans="2:15">
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="2:15" ht="17" thickBot="1"/>
+    <row r="52" spans="2:15">
+      <c r="B52" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="3" t="s">
+      <c r="C52" s="54"/>
+      <c r="D52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="5"/>
-      <c r="N51" s="59" t="s">
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="5"/>
+      <c r="N52" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="2:15">
-      <c r="B52" s="6" t="s">
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C53" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D53" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E53" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F53" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G53" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H53" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="40" t="s">
+      <c r="I53" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J52" s="40" t="s">
+      <c r="J53" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="14" t="s">
+      <c r="K53" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="L53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N52" s="39" t="s">
+      <c r="N53" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O52" s="16" t="s">
+      <c r="O53" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:15">
-      <c r="B53" s="12" t="s">
+    <row r="54" spans="2:15">
+      <c r="B54" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C54" s="7">
         <v>96</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D54" s="46">
         <f>M36</f>
         <v>6081040</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E54" s="25">
         <v>236.54</v>
       </c>
-      <c r="F53" s="7">
-        <f t="shared" ref="F53:F59" si="3">E53/1000/D53</f>
+      <c r="F54" s="7">
+        <f t="shared" ref="F54:F61" si="3">E54/1000/D54</f>
         <v>3.8897951666162365E-8</v>
       </c>
-      <c r="G53" s="33">
-        <f t="shared" ref="G53:G59" si="4">1/F53</f>
+      <c r="G54" s="33">
+        <f t="shared" ref="G54:G61" si="4">1/F54</f>
         <v>25708294.580197852</v>
       </c>
-      <c r="H53" s="33">
-        <f t="shared" ref="H53:H59" si="5">G53/C53</f>
+      <c r="H54" s="33">
+        <f t="shared" ref="H54:H61" si="5">G54/C54</f>
         <v>267794.73521039431</v>
       </c>
-      <c r="I53" s="44">
-        <f>E53*J53</f>
+      <c r="I54" s="44">
+        <f>E54*J54</f>
         <v>2649.2479999999996</v>
       </c>
-      <c r="J53" s="26">
+      <c r="J54" s="26">
         <v>11.2</v>
       </c>
-      <c r="K53" s="57">
-        <f>I53/D53/1000000</f>
+      <c r="K54" s="57">
+        <f>I54/D54/1000000</f>
         <v>4.356570586610184E-10</v>
       </c>
-      <c r="L53" s="56">
-        <f>1/K53</f>
+      <c r="L54" s="56">
+        <f>1/K54</f>
         <v>2295383444.6605229</v>
       </c>
-      <c r="N53" s="12"/>
-      <c r="O53" s="9"/>
-    </row>
-    <row r="54" spans="2:15">
-      <c r="B54" s="12" t="s">
+      <c r="N54" s="12"/>
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C55" s="7">
         <f>121.95/4</f>
         <v>30.487500000000001</v>
-      </c>
-      <c r="D54" s="47">
-        <f>M37</f>
-        <v>12146368</v>
-      </c>
-      <c r="E54" s="27">
-        <v>2.809812</v>
-      </c>
-      <c r="F54" s="7">
-        <f t="shared" si="3"/>
-        <v>2.3132939822010991E-10</v>
-      </c>
-      <c r="G54" s="33">
-        <f t="shared" si="4"/>
-        <v>4322840104.6048632</v>
-      </c>
-      <c r="H54" s="33">
-        <f t="shared" si="5"/>
-        <v>141790573.33677289</v>
-      </c>
-      <c r="I54" s="19"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="23"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="9"/>
-    </row>
-    <row r="55" spans="2:15">
-      <c r="B55" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
       </c>
       <c r="D55" s="47">
         <f>M37</f>
         <v>12146368</v>
       </c>
       <c r="E55" s="27">
-        <v>5.4</v>
+        <v>2.809812</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" si="3"/>
-        <v>4.4457734196757422E-10</v>
+        <v>2.3132939822010991E-10</v>
       </c>
       <c r="G55" s="33">
         <f t="shared" si="4"/>
-        <v>2249327407.4074073</v>
+        <v>4322840104.6048632</v>
       </c>
       <c r="H55" s="33">
         <f t="shared" si="5"/>
-        <v>143086985.20403352</v>
-      </c>
-      <c r="I55" s="20">
-        <f>E55*J55</f>
-        <v>43.777800000000006</v>
-      </c>
-      <c r="J55" s="26">
-        <f>7.37*1.1</f>
-        <v>8.1070000000000011</v>
-      </c>
-      <c r="K55" s="57">
-        <f>I55/D55/1000000</f>
-        <v>3.6041885113311245E-12</v>
-      </c>
-      <c r="L55" s="21">
-        <f>1/K55</f>
-        <v>277454965758.90057</v>
-      </c>
-      <c r="N55" s="35">
-        <f>K$42/K55</f>
-        <v>123.17131835601703</v>
-      </c>
-      <c r="O55" s="36">
-        <f>H55/H$42</f>
-        <v>544.46558228583979</v>
-      </c>
+        <v>141790573.33677289</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="23"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="9"/>
     </row>
     <row r="56" spans="2:15">
       <c r="B56" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="24">
-        <f>100/2</f>
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="C56" s="7">
+        <f>31.44/2</f>
+        <v>15.72</v>
       </c>
       <c r="D56" s="47">
         <f>M37</f>
         <v>12146368</v>
       </c>
       <c r="E56" s="27">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="F56" s="7">
         <f t="shared" si="3"/>
-        <v>1.3995953358238445E-10</v>
+        <v>4.4457734196757422E-10</v>
       </c>
       <c r="G56" s="33">
         <f t="shared" si="4"/>
-        <v>7144922352.9411764</v>
+        <v>2249327407.4074073</v>
       </c>
       <c r="H56" s="33">
         <f t="shared" si="5"/>
-        <v>142898447.05882353</v>
+        <v>143086985.20403352</v>
       </c>
       <c r="I56" s="20">
         <f>E56*J56</f>
-        <v>36.7455</v>
+        <v>43.777800000000006</v>
       </c>
       <c r="J56" s="26">
-        <f>19.65*1.1</f>
-        <v>21.614999999999998</v>
+        <f>7.37*1.1</f>
+        <v>8.1070000000000011</v>
       </c>
       <c r="K56" s="57">
         <f>I56/D56/1000000</f>
-        <v>3.0252253183832399E-12</v>
+        <v>3.6041885113311245E-12</v>
       </c>
       <c r="L56" s="21">
         <f>1/K56</f>
-        <v>330553890952.63367</v>
+        <v>277454965758.90057</v>
       </c>
       <c r="N56" s="35">
         <f>K$42/K56</f>
-        <v>146.7436649583226</v>
+        <v>123.17131835601703</v>
       </c>
       <c r="O56" s="36">
         <f>H56/H$42</f>
-        <v>543.74816881271022</v>
+        <v>544.46558228583979</v>
       </c>
     </row>
     <row r="57" spans="2:15">
       <c r="B57" s="12" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C57" s="24">
-        <f>70/2</f>
-        <v>35</v>
+        <f>100/2</f>
+        <v>50</v>
       </c>
       <c r="D57" s="47">
         <f>M37</f>
         <v>12146368</v>
       </c>
       <c r="E57" s="27">
-        <v>2.4420000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" ref="F57" si="6">E57/1000/D57</f>
-        <v>2.0104775353422522E-10</v>
+        <f t="shared" si="3"/>
+        <v>1.3995953358238445E-10</v>
       </c>
       <c r="G57" s="33">
-        <f t="shared" ref="G57" si="7">1/F57</f>
-        <v>4973942669.9426699</v>
+        <f t="shared" si="4"/>
+        <v>7144922352.9411764</v>
       </c>
       <c r="H57" s="33">
-        <f t="shared" ref="H57" si="8">G57/C57</f>
-        <v>142112647.71264771</v>
+        <f t="shared" si="5"/>
+        <v>142898447.05882353</v>
       </c>
       <c r="I57" s="20">
         <f>E57*J57</f>
-        <v>24.329646000000004</v>
+        <v>36.7455</v>
       </c>
       <c r="J57" s="26">
-        <f>11.07*0.9</f>
-        <v>9.963000000000001</v>
+        <f>19.65*1.1</f>
+        <v>21.614999999999998</v>
       </c>
       <c r="K57" s="57">
         <f>I57/D57/1000000</f>
-        <v>2.0030387684614862E-12</v>
+        <v>3.0252253183832399E-12</v>
       </c>
       <c r="L57" s="21">
         <f>1/K57</f>
-        <v>499241460397.73853</v>
-      </c>
-      <c r="N57" s="68">
+        <v>330553890952.63367</v>
+      </c>
+      <c r="N57" s="35">
         <f>K$42/K57</f>
-        <v>221.62958477595777</v>
+        <v>146.7436649583226</v>
       </c>
       <c r="O57" s="36">
         <f>H57/H$42</f>
-        <v>540.75809464233498</v>
+        <v>543.74816881271022</v>
       </c>
     </row>
     <row r="58" spans="2:15">
       <c r="B58" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
+        <v>46</v>
+      </c>
+      <c r="C58" s="24">
+        <f>70/2</f>
+        <v>35</v>
       </c>
       <c r="D58" s="47">
         <f>M37</f>
         <v>12146368</v>
       </c>
       <c r="E58" s="27">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" ref="F58" si="6">E58/1000/D58</f>
+        <v>2.0104775353422522E-10</v>
+      </c>
+      <c r="G58" s="33">
+        <f t="shared" ref="G58" si="7">1/F58</f>
+        <v>4973942669.9426699</v>
+      </c>
+      <c r="H58" s="33">
+        <f t="shared" ref="H58" si="8">G58/C58</f>
+        <v>142112647.71264771</v>
+      </c>
+      <c r="I58" s="20">
+        <f>E58*J58</f>
+        <v>24.329646000000004</v>
+      </c>
+      <c r="J58" s="26">
+        <f>11.07*0.9</f>
+        <v>9.963000000000001</v>
+      </c>
+      <c r="K58" s="57">
+        <f>I58/D58/1000000</f>
+        <v>2.0030387684614862E-12</v>
+      </c>
+      <c r="L58" s="21">
+        <f>1/K58</f>
+        <v>499241460397.73853</v>
+      </c>
+      <c r="N58" s="68">
+        <f>K$42/K58</f>
+        <v>221.62958477595777</v>
+      </c>
+      <c r="O58" s="36">
+        <f>H58/H$42</f>
+        <v>540.75809464233498</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="24">
+        <f>70/16</f>
+        <v>4.375</v>
+      </c>
+      <c r="D59" s="47">
+        <f>M37</f>
+        <v>12146368</v>
+      </c>
+      <c r="E59" s="27">
+        <v>19.57</v>
+      </c>
+      <c r="F59" s="7">
+        <f t="shared" ref="F59" si="9">E59/1000/D59</f>
+        <v>1.6111812189454494E-9</v>
+      </c>
+      <c r="G59" s="33">
+        <f t="shared" ref="G59" si="10">1/F59</f>
+        <v>620662646.90853345</v>
+      </c>
+      <c r="H59" s="33">
+        <f t="shared" ref="H59" si="11">G59/C59</f>
+        <v>141865747.86480764</v>
+      </c>
+      <c r="I59" s="20">
+        <f>E59*J59</f>
+        <v>35.225999999999999</v>
+      </c>
+      <c r="J59" s="26">
+        <f>0.9*2</f>
+        <v>1.8</v>
+      </c>
+      <c r="K59" s="57">
+        <f>I59/D59/1000000</f>
+        <v>2.9001261941018087E-12</v>
+      </c>
+      <c r="L59" s="21">
+        <f>1/K59</f>
+        <v>344812581615.85193</v>
+      </c>
+      <c r="N59" s="35">
+        <f>K$42/K59</f>
+        <v>153.07356329773586</v>
+      </c>
+      <c r="O59" s="36">
+        <f>H59/H$42</f>
+        <v>539.81860689487257</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="7">
+        <f>31.44/2</f>
+        <v>15.72</v>
+      </c>
+      <c r="D60" s="47">
+        <f>M37</f>
+        <v>12146368</v>
+      </c>
+      <c r="E60" s="27">
         <v>5.4</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F60" s="7">
         <f t="shared" si="3"/>
         <v>4.4457734196757422E-10</v>
       </c>
-      <c r="G58" s="33">
+      <c r="G60" s="33">
         <f t="shared" si="4"/>
         <v>2249327407.4074073</v>
       </c>
-      <c r="H58" s="33">
+      <c r="H60" s="33">
         <f t="shared" si="5"/>
         <v>143086985.20403352</v>
       </c>
-      <c r="I58" s="20">
-        <f>E58*J58</f>
+      <c r="I60" s="20">
+        <f>E60*J60</f>
         <v>26.000999999999998</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J60" s="26">
         <f>5.35*0.9</f>
         <v>4.8149999999999995</v>
       </c>
-      <c r="K58" s="57">
-        <f>I58/D58/1000000</f>
+      <c r="K60" s="57">
+        <f>I60/D60/1000000</f>
         <v>2.1406399015738694E-12</v>
       </c>
-      <c r="L58" s="21">
-        <f>1/K58</f>
+      <c r="L60" s="21">
+        <f>1/K60</f>
         <v>467150032691.05042</v>
       </c>
-      <c r="N58" s="35">
-        <f>K$42/K58</f>
+      <c r="N60" s="35">
+        <f>K$42/K60</f>
         <v>207.38315221437804</v>
       </c>
-      <c r="O58" s="36">
-        <f>H58/H$42</f>
+      <c r="O60" s="36">
+        <f>H60/H$42</f>
         <v>544.46558228583979</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="17" thickBot="1">
-      <c r="B59" s="22" t="s">
+    <row r="61" spans="2:15" ht="17" thickBot="1">
+      <c r="B61" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C61" s="32">
         <f>46/2</f>
         <v>23</v>
       </c>
-      <c r="D59" s="48">
+      <c r="D61" s="48">
         <f>M37</f>
         <v>12146368</v>
       </c>
-      <c r="E59" s="41">
+      <c r="E61" s="41">
         <v>3.7</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F61" s="11">
         <f t="shared" si="3"/>
         <v>3.0461780838518974E-10</v>
       </c>
-      <c r="G59" s="34">
+      <c r="G61" s="34">
         <f t="shared" si="4"/>
         <v>3282802162.1621618</v>
       </c>
-      <c r="H59" s="34">
+      <c r="H61" s="34">
         <f t="shared" si="5"/>
         <v>142730528.7896592</v>
       </c>
-      <c r="I59" s="67">
-        <f>E59*J59</f>
+      <c r="I61" s="67">
+        <f>E61*J61</f>
         <v>25.241400000000002</v>
       </c>
-      <c r="J59" s="43">
+      <c r="J61" s="43">
         <f>7.58*0.9</f>
         <v>6.8220000000000001</v>
       </c>
-      <c r="K59" s="58">
-        <f>I59/D59/1000000</f>
+      <c r="K61" s="58">
+        <f>I61/D61/1000000</f>
         <v>2.0781026888037644E-12</v>
       </c>
-      <c r="L59" s="18">
-        <f>1/K59</f>
+      <c r="L61" s="18">
+        <f>1/K61</f>
         <v>481208173873.08148</v>
       </c>
-      <c r="N59" s="37">
-        <f>K$42/K59</f>
+      <c r="N61" s="37">
+        <f>K$42/K61</f>
         <v>213.62402009104258</v>
       </c>
-      <c r="O59" s="38">
-        <f>H59/H$42</f>
+      <c r="O61" s="38">
+        <f>H61/H$42</f>
         <v>543.10921679295382</v>
       </c>
     </row>
